--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="nw_reconstruction" sheetId="2" r:id="rId1"/>
-    <sheet name="unbalanced" sheetId="1" r:id="rId2"/>
-    <sheet name="expt_verified" sheetId="4" r:id="rId3"/>
-    <sheet name="clustering_evaluation" sheetId="5" r:id="rId4"/>
+    <sheet name="expt_verified" sheetId="4" r:id="rId2"/>
+    <sheet name="clustering_evaluation" sheetId="5" r:id="rId3"/>
+    <sheet name="unbalanced_Archive" sheetId="1" r:id="rId4"/>
+    <sheet name="unbalanced" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="98">
   <si>
     <t>Dataset</t>
   </si>
@@ -328,6 +329,9 @@
   </si>
   <si>
     <t>Train, Test (Network Reconstruction): 3 clusters (pos HVPPI 0.99, 0.95 thresholds + neg)</t>
+  </si>
+  <si>
+    <t>Default Hyper-parameters</t>
   </si>
 </sst>
 </file>
@@ -542,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -631,6 +635,17 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,17 +664,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,9 +683,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFCCCCFF"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2977,640 +2992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.92920000000000003</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.69550000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.97050000000000003</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.80740000000000001</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.74690000000000001</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.95809999999999995</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.67190000000000005</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.82669999999999999</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.73950000000000005</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.95740000000000003</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.84030000000000005</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.9022</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.53480000000000005</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.96709999999999996</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.62139999999999995</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.92779999999999996</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="6">
-        <v>5521</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.87560000000000004</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.35260000000000002</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.78410000000000002</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.50039999999999996</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.83640000000000003</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.82730000000000004</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.48759999999999998</v>
-      </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.88239999999999996</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.29470000000000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.79159999999999997</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.78239999999999998</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.47820000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.8508</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2.93E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.75280000000000002</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.3483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.46760000000000002</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.73950000000000005</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.34139999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.68310000000000004</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.28029999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="L13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="O15" s="2">
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.99590000000000001</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="R15" s="2">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.45619999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.85360000000000003</v>
-      </c>
-      <c r="O16" s="2">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.99480000000000002</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0.13059999999999999</v>
-      </c>
-      <c r="R16" s="2">
-        <v>7.7299999999999994E-2</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0.44769999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0.80869999999999997</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0.41239999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0.78620000000000001</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0.3674</v>
-      </c>
-    </row>
-    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.85060000000000002</v>
-      </c>
-      <c r="O19" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.89990000000000003</v>
-      </c>
-      <c r="R19" s="2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.71660000000000001</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.30659999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0.65949999999999998</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0.26860000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="N21" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0.1502</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="L14:T20">
-    <sortCondition descending="1" ref="T14:T20"/>
-  </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L6:L7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,7 +3092,7 @@
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="53">
         <v>0.86009999999999998</v>
       </c>
       <c r="C5" s="2">
@@ -3742,7 +3127,7 @@
       <c r="C6" s="18">
         <v>0.7278</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="54">
         <v>0.33139999999999997</v>
       </c>
       <c r="E6" s="18">
@@ -3765,10 +3150,10 @@
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="53">
         <v>0.71660000000000001</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="54">
         <v>0.54800000000000004</v>
       </c>
       <c r="D7" s="18">
@@ -3991,27 +3376,13 @@
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.51880000000000004</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.55069999999999997</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.52139999999999997</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.50549999999999995</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.54600000000000004</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
         <v>28</v>
       </c>
@@ -4020,27 +3391,13 @@
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.7399</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.96130000000000004</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="18" t="s">
         <v>67</v>
       </c>
@@ -4049,27 +3406,13 @@
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.9022</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.53480000000000005</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.96709999999999996</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.62139999999999995</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.92779999999999996</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.72219999999999995</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="4" t="s">
         <v>63</v>
       </c>
@@ -4179,12 +3522,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4394,7 +3737,7 @@
       <c r="D6" s="34">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="62">
         <v>0.69679999999999997</v>
       </c>
       <c r="F6" s="34">
@@ -4585,13 +3928,13 @@
       <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="36">
         <v>0.3614</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="36">
         <v>0.27110000000000001</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="36">
         <v>0.30980000000000002</v>
       </c>
       <c r="E10" s="35">
@@ -4687,13 +4030,27 @@
       <c r="A13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="B13" s="61">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0.39140000000000003</v>
+      </c>
+      <c r="D13" s="50">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="E13" s="63">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="F13" s="40">
+        <v>0.1636</v>
+      </c>
+      <c r="G13" s="42">
+        <v>1.8648</v>
+      </c>
+      <c r="H13" s="40">
+        <v>59706.029000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
@@ -4997,13 +4354,13 @@
       <c r="A26" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="52">
         <v>0.61639999999999995</v>
       </c>
       <c r="C26" s="45">
         <v>0.5948</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="50">
         <v>0.60540000000000005</v>
       </c>
       <c r="E26" s="45">
@@ -5012,7 +4369,7 @@
       <c r="F26" s="45">
         <v>0.30549999999999999</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="51">
         <v>2.0028000000000001</v>
       </c>
       <c r="H26" s="45">
@@ -5176,4 +4533,854 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.80740000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.9022</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.53480000000000005</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="L5" s="60"/>
+      <c r="M5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5521</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.87560000000000004</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.35260000000000002</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.48759999999999998</v>
+      </c>
+      <c r="L7" s="60"/>
+      <c r="M7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.47820000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.8508</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.93E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.3483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.46760000000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.34139999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.28029999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="R15" s="2">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.45619999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="R16" s="2">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.44769999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.41239999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.3674</v>
+      </c>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="O19" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.30659999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.26860000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="N21" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.1502</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="L14:T20">
+    <sortCondition descending="1" ref="T14:T20"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="nw_reconstruction" sheetId="2" r:id="rId1"/>
-    <sheet name="expt_verified" sheetId="4" r:id="rId2"/>
-    <sheet name="clustering_evaluation" sheetId="5" r:id="rId3"/>
-    <sheet name="unbalanced_Archive" sheetId="1" r:id="rId4"/>
-    <sheet name="unbalanced" sheetId="6" r:id="rId5"/>
+    <sheet name="compute_edges" sheetId="7" r:id="rId1"/>
+    <sheet name="nw_reconstruction" sheetId="2" r:id="rId2"/>
+    <sheet name="unbalanced" sheetId="6" r:id="rId3"/>
+    <sheet name="expt_verified" sheetId="10" r:id="rId4"/>
+    <sheet name="clustering_evaluation" sheetId="8" r:id="rId5"/>
+    <sheet name="clustering_evaluation_2" sheetId="5" r:id="rId6"/>
+    <sheet name="nSNE" sheetId="9" r:id="rId7"/>
+    <sheet name="tune_hyperparameters" sheetId="4" r:id="rId8"/>
+    <sheet name="unbalanced_Archive" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="138">
   <si>
     <t>Dataset</t>
   </si>
@@ -272,9 +276,6 @@
     <t>grarep</t>
   </si>
   <si>
-    <t>Lower = Better defined clusters</t>
-  </si>
-  <si>
     <t>Higher = Better defined clusters</t>
   </si>
   <si>
@@ -303,13 +304,6 @@
     <t>ksteps = 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Experimentally Verified </t>
-  </si>
-  <si>
-    <t>num_walks = 8, walk_length = 32
-p = 0.25 , q = 0.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">K = 128, β = 0.005 </t>
   </si>
   <si>
@@ -325,13 +319,149 @@
     <t>Human-Human Interactions</t>
   </si>
   <si>
-    <t>Edgelist: : 4 clusters (pos HVPPI 0.99, 0.95, 0.90 thresholds + neg)</t>
-  </si>
-  <si>
     <t>Train, Test (Network Reconstruction): 3 clusters (pos HVPPI 0.99, 0.95 thresholds + neg)</t>
   </si>
   <si>
     <t>Default Hyper-parameters</t>
+  </si>
+  <si>
+    <t>Edgelist: 4 clusters (pos HVPPI 0.99, 0.95, 0.90 thresholds + neg)</t>
+  </si>
+  <si>
+    <t>hidden1 = 256,  hidden2 = 128</t>
+  </si>
+  <si>
+    <t>Concatenation</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Hadamard</t>
+  </si>
+  <si>
+    <t>Without UMAP dimensionality reduction</t>
+  </si>
+  <si>
+    <t>Adjusted rand score</t>
+  </si>
+  <si>
+    <t>Adjusted Mutual Information Score</t>
+  </si>
+  <si>
+    <t>Measures the similarity of the two assignments</t>
+  </si>
+  <si>
+    <t>K = 128,  
+β = 0</t>
+  </si>
+  <si>
+    <t>K = 128,  
+β = 1</t>
+  </si>
+  <si>
+    <t>K = 128,  
+β = 0.005</t>
+  </si>
+  <si>
+    <t>K = 128,  
+β = 0.05</t>
+  </si>
+  <si>
+    <t>K = 128,  
+β = 0.01</t>
+  </si>
+  <si>
+    <t>Without dim reduction</t>
+  </si>
+  <si>
+    <t>K-Means clustering</t>
+  </si>
+  <si>
+    <t>All Edges</t>
+  </si>
+  <si>
+    <t>Train_Test</t>
+  </si>
+  <si>
+    <t>K = 128,
+β = 0.5</t>
+  </si>
+  <si>
+    <t>K = 128,  
+β = 0.5</t>
+  </si>
+  <si>
+    <t>GraRep (Hadamard)</t>
+  </si>
+  <si>
+    <t>VAE (Hadamard)</t>
+  </si>
+  <si>
+    <t>* For ripple2vec and Deepwalk, Hadamard and Concatenation results are close.</t>
+  </si>
+  <si>
+    <t>Therefore, use hadamard due to lesser number of dimensions.</t>
+  </si>
+  <si>
+    <t>Graph (Hadamard)</t>
+  </si>
+  <si>
+    <t>Testset 1: (446 pos, 446 neg)</t>
+  </si>
+  <si>
+    <t>Testset 2: Changed labels (270 pos, 176 + 446 = 622 neg)</t>
+  </si>
+  <si>
+    <t>0.8849 0.3377 0.9457 0.4134 0.3681 0.8368 0.3687</t>
+  </si>
+  <si>
+    <t>0.8876 0.2952 0.9534 0.4181 0.3412 0.8324 0.3572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8922 0.1668 0.9728 0.4096 0.2321 0.7841 0.295 </t>
+  </si>
+  <si>
+    <t>0.8882 0.3191 0.9515 0.4246 0.3624 0.8375 0.3674</t>
+  </si>
+  <si>
+    <t>GraRep (Sum)</t>
+  </si>
+  <si>
+    <t>VGAE (Sum)</t>
+  </si>
+  <si>
+    <t>GraRep (Average)</t>
+  </si>
+  <si>
+    <t>Testset 3: Changed labels (based on Testset 1) (270 pos, 176 + 446 = 622 neg)</t>
+  </si>
+  <si>
+    <t>Testset 2: Pos samples are experimentally verified but indicated by HVPPI as non-interacting (i.e, Score &lt; 0.143) 449 pos, 446 neg</t>
+  </si>
+  <si>
+    <t>Identifying positives</t>
+  </si>
+  <si>
+    <t>Identifying negatives</t>
+  </si>
+  <si>
+    <t>Testset 4: Pos samples sorted according to HVPPI scores (Top 446 interactions)</t>
+  </si>
+  <si>
+    <t>* 446 non-interacting human-human protein pairs from Negatome same across all datasets</t>
+  </si>
+  <si>
+    <t>* Identifying negatives is key for this dataset</t>
+  </si>
+  <si>
+    <t>0.9    0.     1.     0.     0.     0.6881 0.1909</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9    0.     1.     0.     0.     0.6877 0.1902</t>
   </si>
 </sst>
 </file>
@@ -387,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +569,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -593,23 +729,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -623,9 +749,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -633,8 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -645,7 +766,85 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,17 +863,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,8 +896,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFFCCCC"/>
       <color rgb="FFCCCCFF"/>
     </mruColors>
   </colors>
@@ -734,13 +947,693 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-SG"/>
-              <a:t>Graph</a:t>
+              <a:t>Accuracy</a:t>
             </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compute_edges!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compute_edges!$K$3:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Deepwalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VGAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compute_edges!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68679999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53DE-4C51-BAC2-CBC41DBFD38B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compute_edges!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compute_edges!$K$3:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Deepwalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VGAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compute_edges!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8861</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67620000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53DE-4C51-BAC2-CBC41DBFD38B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compute_edges!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadamard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compute_edges!$K$3:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Deepwalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VGAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compute_edges!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60070000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53DE-4C51-BAC2-CBC41DBFD38B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compute_edges!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concatenation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compute_edges!$K$3:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Deepwalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VGAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compute_edges!$O$3:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88970000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69240000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53DE-4C51-BAC2-CBC41DBFD38B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="181999520"/>
+        <c:axId val="181999936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="181999520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181999936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181999936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181999520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-SG" baseline="0"/>
-              <a:t> Embedding (FNN)</a:t>
+              <a:rPr lang="en-SG" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Graph Embedding (FNN)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-SG"/>
+            <a:endParaRPr lang="en-SG" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -790,7 +1683,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LINE</c:v>
+                  <c:v>nSNE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -841,32 +1734,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.99219999999999997</c:v>
+                  <c:v>0.99639999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99780000000000002</c:v>
+                  <c:v>0.99690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98650000000000004</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98670000000000002</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99219999999999997</c:v>
+                  <c:v>0.99639999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99939999999999996</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99919999999999998</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AB7-4222-A2B3-574B9641B3DD}"/>
+              <c16:uniqueId val="{00000000-97C2-4771-8080-84AD03AD033D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -879,7 +1772,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SDNE</c:v>
+                  <c:v>LINE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -930,32 +1823,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.96230000000000004</c:v>
+                  <c:v>0.99219999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98829999999999996</c:v>
+                  <c:v>0.99780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93630000000000002</c:v>
+                  <c:v>0.98650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93959999999999999</c:v>
+                  <c:v>0.98670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96330000000000005</c:v>
+                  <c:v>0.99219999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99119999999999997</c:v>
+                  <c:v>0.99939999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98970000000000002</c:v>
+                  <c:v>0.99919999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3AB7-4222-A2B3-574B9641B3DD}"/>
+              <c16:uniqueId val="{00000001-97C2-4771-8080-84AD03AD033D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -968,7 +1861,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>node2vec+</c:v>
+                  <c:v>SDNE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1019,32 +1912,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.94930000000000003</c:v>
+                  <c:v>0.96230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97130000000000005</c:v>
+                  <c:v>0.98829999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9274</c:v>
+                  <c:v>0.93630000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93049999999999999</c:v>
+                  <c:v>0.93959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95040000000000002</c:v>
+                  <c:v>0.96330000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98719999999999997</c:v>
+                  <c:v>0.99119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98599999999999999</c:v>
+                  <c:v>0.98970000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3AB7-4222-A2B3-574B9641B3DD}"/>
+              <c16:uniqueId val="{00000002-97C2-4771-8080-84AD03AD033D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1057,7 +1950,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>struc2vec</c:v>
+                  <c:v>node2vec+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1108,32 +2001,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.92259999999999998</c:v>
+                  <c:v>0.94930000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92830000000000001</c:v>
+                  <c:v>0.97130000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91700000000000004</c:v>
+                  <c:v>0.9274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91800000000000004</c:v>
+                  <c:v>0.93049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92310000000000003</c:v>
+                  <c:v>0.95040000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97140000000000004</c:v>
+                  <c:v>0.98719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96799999999999997</c:v>
+                  <c:v>0.98599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3AB7-4222-A2B3-574B9641B3DD}"/>
+              <c16:uniqueId val="{00000003-97C2-4771-8080-84AD03AD033D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1146,7 +2039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ripple2vec</c:v>
+                  <c:v>struc2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1197,32 +2090,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.89419999999999999</c:v>
+                  <c:v>0.92259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90669999999999995</c:v>
+                  <c:v>0.92830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88160000000000005</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88470000000000004</c:v>
+                  <c:v>0.91800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89549999999999996</c:v>
+                  <c:v>0.92310000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95020000000000004</c:v>
+                  <c:v>0.97140000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94410000000000005</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3AB7-4222-A2B3-574B9641B3DD}"/>
+              <c16:uniqueId val="{00000004-97C2-4771-8080-84AD03AD033D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1235,7 +2128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>node2vec</c:v>
+                  <c:v>ripple2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1286,32 +2179,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.86260000000000003</c:v>
+                  <c:v>0.89419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89639999999999997</c:v>
+                  <c:v>0.90669999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82869999999999999</c:v>
+                  <c:v>0.88160000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83940000000000003</c:v>
+                  <c:v>0.88470000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86680000000000001</c:v>
+                  <c:v>0.89549999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91239999999999999</c:v>
+                  <c:v>0.95020000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87180000000000002</c:v>
+                  <c:v>0.94410000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3AB7-4222-A2B3-574B9641B3DD}"/>
+              <c16:uniqueId val="{00000005-97C2-4771-8080-84AD03AD033D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1324,7 +2217,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deepwalk</c:v>
+                  <c:v>node2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1377,32 +2270,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.84189999999999998</c:v>
+                  <c:v>0.86260000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85019999999999996</c:v>
+                  <c:v>0.89639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83360000000000001</c:v>
+                  <c:v>0.82869999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83650000000000002</c:v>
+                  <c:v>0.83940000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84319999999999995</c:v>
+                  <c:v>0.86680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90049999999999997</c:v>
+                  <c:v>0.91239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88149999999999995</c:v>
+                  <c:v>0.87180000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3AB7-4222-A2B3-574B9641B3DD}"/>
+              <c16:uniqueId val="{00000006-97C2-4771-8080-84AD03AD033D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1415,7 +2308,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GraRep</c:v>
+                  <c:v>Deepwalk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1468,32 +2361,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.77059999999999995</c:v>
+                  <c:v>0.84189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85109999999999997</c:v>
+                  <c:v>0.85019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69010000000000005</c:v>
+                  <c:v>0.83360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7339</c:v>
+                  <c:v>0.83650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78769999999999996</c:v>
+                  <c:v>0.84319999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82709999999999995</c:v>
+                  <c:v>0.90049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78580000000000005</c:v>
+                  <c:v>0.88149999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3AB7-4222-A2B3-574B9641B3DD}"/>
+              <c16:uniqueId val="{00000007-97C2-4771-8080-84AD03AD033D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1506,7 +2399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAE</c:v>
+                  <c:v>GraRep (Hadamard)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1559,32 +2452,123 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.60070000000000001</c:v>
+                  <c:v>0.77059999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60270000000000001</c:v>
+                  <c:v>0.85109999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59870000000000001</c:v>
+                  <c:v>0.69010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60109999999999997</c:v>
+                  <c:v>0.7339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59950000000000003</c:v>
+                  <c:v>0.78769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63749999999999996</c:v>
+                  <c:v>0.82709999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61270000000000002</c:v>
+                  <c:v>0.78580000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3AB7-4222-A2B3-574B9641B3DD}"/>
+              <c16:uniqueId val="{00000008-97C2-4771-8080-84AD03AD033D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nw_reconstruction!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAE (Hadamard)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>nw_reconstruction!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nw_reconstruction!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.60070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61270000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-97C2-4771-8080-84AD03AD033D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1598,11 +2582,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1904743312"/>
-        <c:axId val="1904744144"/>
+        <c:axId val="1391454832"/>
+        <c:axId val="1391455248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1904743312"/>
+        <c:axId val="1391454832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +2629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1904744144"/>
+        <c:crossAx val="1391455248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1653,7 +2637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1904744144"/>
+        <c:axId val="1391455248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1705,7 +2689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1904743312"/>
+        <c:crossAx val="1391454832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1787,6 +2771,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2329,20 +3353,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2350,6 +3877,41 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2629,10 +4191,1321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="N3" s="35">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="P3">
+        <f>MAX(L3:O3)</f>
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="35">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P11" si="0">MAX(L4:O4)</f>
+        <v>0.96430000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.9274</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="N5" s="35">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.94930000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="N6" s="35">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.92259999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="O7" s="35">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.90159999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.7984</v>
+      </c>
+      <c r="N8" s="37">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.86260000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="O9" s="35">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.86970000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.7339</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="91">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0.8861</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="O10" s="49">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.88970000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="91">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="O11" s="49">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.69240000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.9839</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.9929</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.92490000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.95909999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.7984</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.81179999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.81520000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.8861</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.9536</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.95269999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.67030000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.9839</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.98529999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.9647</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.98650000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.878</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.9143</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.8236</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.82069999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.81420000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.95230000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.67820000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.9768</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.9677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.96309999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.8508</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.8619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.91769999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.9556</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.95279999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.7339</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.68269999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,321 +5554,3516 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.996</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.996</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B4" s="18">
         <v>0.99219999999999997</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C4" s="18">
         <v>0.99780000000000002</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D4" s="18">
         <v>0.98650000000000004</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E4" s="18">
         <v>0.98670000000000002</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F4" s="18">
         <v>0.99219999999999997</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G4" s="18">
         <v>0.99939999999999996</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H4" s="18">
         <v>0.99919999999999998</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B5" s="15">
         <v>0.96230000000000004</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C5" s="15">
         <v>0.98829999999999996</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D5" s="15">
         <v>0.93630000000000002</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E5" s="15">
         <v>0.93959999999999999</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F5" s="15">
         <v>0.96330000000000005</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G5" s="15">
         <v>0.99119999999999997</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H5" s="15">
         <v>0.98970000000000002</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I5" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B6" s="88">
         <v>0.94930000000000003</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C6" s="88">
         <v>0.97130000000000005</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D6" s="88">
         <v>0.9274</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E6" s="88">
         <v>0.93049999999999999</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F6" s="88">
         <v>0.95040000000000002</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G6" s="88">
         <v>0.98719999999999997</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H6" s="88">
         <v>0.98599999999999999</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B8" s="16">
         <v>0.89419999999999999</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C8" s="16">
         <v>0.90669999999999995</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D8" s="16">
         <v>0.88160000000000005</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="16">
         <v>0.88470000000000004</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="16">
         <v>0.89549999999999996</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G8" s="16">
         <v>0.95020000000000004</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H8" s="16">
         <v>0.94410000000000005</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B9" s="89">
         <v>0.86260000000000003</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C9" s="89">
         <v>0.89639999999999997</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D9" s="89">
         <v>0.82869999999999999</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="89">
         <v>0.83940000000000003</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="89">
         <v>0.86680000000000001</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G9" s="89">
         <v>0.91239999999999999</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H9" s="89">
         <v>0.87180000000000002</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.85019999999999996</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.83360000000000001</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.84319999999999995</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0.90049999999999997</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.7339</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.82709999999999995</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.78580000000000005</v>
+        <v>59</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0.88149999999999995</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2">
-        <v>0.60070000000000001</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="C11" s="2">
-        <v>0.60270000000000001</v>
+        <v>0.85109999999999997</v>
       </c>
       <c r="D11" s="2">
-        <v>0.59870000000000001</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="E11" s="2">
-        <v>0.60109999999999997</v>
+        <v>0.7339</v>
       </c>
       <c r="F11" s="2">
-        <v>0.59950000000000003</v>
+        <v>0.78769999999999996</v>
       </c>
       <c r="G11" s="2">
-        <v>0.63749999999999996</v>
+        <v>0.82709999999999995</v>
       </c>
       <c r="H11" s="2">
-        <v>0.61270000000000002</v>
+        <v>0.78580000000000005</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="15">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.99690000000000001</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.996</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.996</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="25" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-    </row>
-    <row r="26" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>116</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState ref="A3:I13">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B32" sqref="B32:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.45619999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.44769999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.874</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.41239999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.3674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="N7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.30659999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.26860000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.1502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="J1" s="92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.55069999999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.7399</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.96130000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.52959999999999996</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.7278</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.58389999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.76690000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="74">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.48060000000000003</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.49070000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="96">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.9345</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.7913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="96">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.7732</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.7772</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.73839999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="96">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.68730000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="74">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.8498</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.92969999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="C19" s="35">
+        <v>0.9052</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.78359999999999996</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="J19" s="101"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="96">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="C20" s="35">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.9173</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.82769999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="96">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.5081</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.41610000000000003</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.4551</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.6512</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.4405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.74780000000000002</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.5081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.62629999999999997</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.72289999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="102">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.70220000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.7601</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.6552</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.8427</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.72450000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.7157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="74">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.69369999999999998</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.81589999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="100">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.9798</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.98119999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="96">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.77829999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="96">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.9415</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.98909999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.4824</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.44429999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.61839999999999995</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.49080000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.4587</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.62109999999999999</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.5998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.7016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="61">
+        <v>0</v>
+      </c>
+      <c r="C5" s="61">
+        <v>0</v>
+      </c>
+      <c r="D5" s="61">
+        <v>0</v>
+      </c>
+      <c r="E5" s="61">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="F5" s="61">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G5" s="61">
+        <v>0</v>
+      </c>
+      <c r="H5" s="61">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="75">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="C6" s="75">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D6" s="75">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E6" s="75">
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="F6" s="75">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="G6" s="75">
+        <v>1.9E-3</v>
+      </c>
+      <c r="H6" s="75">
+        <v>3.73E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="75">
+        <v>1.78E-2</v>
+      </c>
+      <c r="C7" s="75">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="D7" s="75">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="E7" s="76">
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="F7" s="77">
+        <v>-9.0700000000000003E-2</v>
+      </c>
+      <c r="G7" s="75">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H7" s="75">
+        <v>0.53159999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="75">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="C8" s="75">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D8" s="75">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E8" s="75">
+        <v>0.43690000000000001</v>
+      </c>
+      <c r="F8" s="75">
+        <v>1.14E-2</v>
+      </c>
+      <c r="G8" s="75">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H8" s="75">
+        <v>0.39360000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="75">
+        <v>1.54E-2</v>
+      </c>
+      <c r="C9" s="75">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="D9" s="75">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E9" s="75">
+        <v>0.43719999999999998</v>
+      </c>
+      <c r="F9" s="77">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="G9" s="75">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H9" s="75">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="75">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="C10" s="75">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="D10" s="75">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="E10" s="75">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="F10" s="77">
+        <v>-9.9299999999999999E-2</v>
+      </c>
+      <c r="G10" s="75">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="H10" s="75">
+        <v>0.30649999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="75">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="D11" s="75">
+        <v>0.309</v>
+      </c>
+      <c r="E11" s="76">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="F11" s="76">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="G11" s="76">
+        <v>0.309</v>
+      </c>
+      <c r="H11" s="75">
+        <v>0.53490000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="75">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="C12" s="75">
+        <v>1.41E-2</v>
+      </c>
+      <c r="D12" s="75">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="E12" s="75">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="F12" s="77">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="G12" s="75">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="H12" s="75">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="75">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="C14" s="75">
+        <v>2.01E-2</v>
+      </c>
+      <c r="D14" s="75">
+        <v>2.69E-2</v>
+      </c>
+      <c r="E14" s="75">
+        <v>0.45669999999999999</v>
+      </c>
+      <c r="F14" s="77">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="G14" s="75">
+        <v>2.69E-2</v>
+      </c>
+      <c r="H14" s="75">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="79">
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="C16" s="75">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="D16" s="75">
+        <v>0.4229</v>
+      </c>
+      <c r="E16" s="75">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="F16" s="75">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G16" s="75">
+        <v>0.4229</v>
+      </c>
+      <c r="H16" s="75">
+        <v>0.1618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="69"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="75">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="C20" s="75">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D20" s="75">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="E20" s="75">
+        <v>0.48609999999999998</v>
+      </c>
+      <c r="F20" s="75">
+        <v>0.1196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="75">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C21" s="75">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D21" s="75">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E21" s="75">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="F21" s="75">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="75">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="C22" s="75">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D22" s="75">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E22" s="75">
+        <v>0.49869999999999998</v>
+      </c>
+      <c r="F22" s="75">
+        <v>7.9100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="75">
+        <v>1.09E-2</v>
+      </c>
+      <c r="C23" s="75">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D23" s="75">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E23" s="75">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="F23" s="75">
+        <v>0.2296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="75">
+        <v>1.15E-2</v>
+      </c>
+      <c r="C24" s="75">
+        <v>1.44E-2</v>
+      </c>
+      <c r="D24" s="75">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E24" s="75">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F24" s="75">
+        <v>0.2334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="75">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C25" s="75">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D25" s="75">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="E25" s="75">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="F25" s="75">
+        <v>0.38040000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="75">
+        <v>2.87E-2</v>
+      </c>
+      <c r="C26" s="75">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D26" s="75">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="E26" s="75">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F26" s="75">
+        <v>0.1583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C6" s="34">
+        <v>281167.71500000003</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2.1604000000000001</v>
+      </c>
+      <c r="H6" s="16">
+        <v>42695.885600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="34">
+        <v>3.2477999999999998</v>
+      </c>
+      <c r="C7" s="34">
+        <v>22034.2199</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="H7" s="16">
+        <v>236538.296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="34">
+        <v>1.7269000000000001</v>
+      </c>
+      <c r="C8" s="34">
+        <v>31047.848699999999</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2.9596</v>
+      </c>
+      <c r="H8" s="16">
+        <v>26082.993600000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="34">
+        <v>1.5353000000000001</v>
+      </c>
+      <c r="C9" s="34">
+        <v>84454.841799999995</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1.7061999999999999</v>
+      </c>
+      <c r="H9" s="16">
+        <v>60825.734100000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="34">
+        <v>2.1781000000000001</v>
+      </c>
+      <c r="C10" s="34">
+        <v>39621.099600000001</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2.0196999999999998</v>
+      </c>
+      <c r="H10" s="16">
+        <v>18648.903200000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="34">
+        <v>2.468</v>
+      </c>
+      <c r="C11" s="34">
+        <v>34894.470800000003</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2.1153</v>
+      </c>
+      <c r="H11" s="16">
+        <v>23007.054400000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="34">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="C12" s="34">
+        <v>263571.70299999998</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1.9795</v>
+      </c>
+      <c r="H12" s="16">
+        <v>44516.8848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="60">
+        <v>0.48630000000000001</v>
+      </c>
+      <c r="C13" s="56">
+        <v>1088693.74</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="56">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="C14" s="56">
+        <v>13613345.1</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="56">
+        <v>0.70540000000000003</v>
+      </c>
+      <c r="C15" s="56">
+        <v>332273.04100000003</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="36">
+        <v>1.8648</v>
+      </c>
+      <c r="C17" s="34">
+        <v>59706.029000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="30">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C21" s="30">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D21" s="30">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0.371</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0.9859</v>
+      </c>
+      <c r="H21" s="30">
+        <v>9377.1252000000004</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="30">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D22" s="30">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E22" s="30">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="F22" s="30">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="G22" s="30">
+        <v>3.2277999999999998</v>
+      </c>
+      <c r="H22" s="30">
+        <v>761.76229999999998</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="30">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="C23" s="30">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="D23" s="30">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F23" s="29">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="G23" s="30">
+        <v>1.0543</v>
+      </c>
+      <c r="H23" s="30">
+        <v>2173.4176000000002</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="30">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="C24" s="30">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="D24" s="30">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0.3982</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="30">
+        <v>1.6344000000000001</v>
+      </c>
+      <c r="H24" s="30">
+        <v>2396.6592000000001</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="30">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="C25" s="30">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="D25" s="30">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.1613</v>
+      </c>
+      <c r="G25" s="30">
+        <v>2.1152000000000002</v>
+      </c>
+      <c r="H25" s="30">
+        <v>1475.2523000000001</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="30">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.1341</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.1027</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0.49020000000000002</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="G26" s="30">
+        <v>1.8137000000000001</v>
+      </c>
+      <c r="H26" s="30">
+        <v>1952.9346</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="30">
+        <v>0.57689999999999997</v>
+      </c>
+      <c r="C27" s="29">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D27" s="30">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0.8196</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="H27" s="30">
+        <v>20282.855100000001</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="52">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="C28" s="52">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="D28" s="52">
+        <v>2.63E-2</v>
+      </c>
+      <c r="E28" s="52">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="F28" s="52">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="G28" s="53">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="H28" s="52">
+        <v>18002.9997</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="55">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C29" s="56">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D29" s="56">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="E29" s="56">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="F29" s="57">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="G29" s="56">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="H29" s="56">
+        <v>481828.17700000003</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="52">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="C30" s="52">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="D30" s="52">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="E30" s="52">
+        <v>0.46050000000000002</v>
+      </c>
+      <c r="F30" s="52">
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="G30" s="52">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="H30" s="52">
+        <v>11199.053599999999</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="58">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="C31" s="59">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="D31" s="59">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="E31" s="59">
+        <v>0.46</v>
+      </c>
+      <c r="F31" s="59">
+        <v>4.02E-2</v>
+      </c>
+      <c r="G31" s="58">
+        <v>3.4428999999999998</v>
+      </c>
+      <c r="H31" s="59">
+        <v>352.0453</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="43">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="C32" s="38">
+        <v>0.5948</v>
+      </c>
+      <c r="D32" s="41">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="E32" s="38">
+        <v>0.8014</v>
+      </c>
+      <c r="F32" s="38">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="G32" s="42">
+        <v>2.0028000000000001</v>
+      </c>
+      <c r="H32" s="38">
+        <v>3453.6925999999999</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="66">
+        <v>0.6028</v>
+      </c>
+      <c r="C3" s="65">
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="D3" s="65">
+        <v>0.59</v>
+      </c>
+      <c r="E3" s="65">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="F3" s="65">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="G3" s="65">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="H3" s="65">
+        <v>0.31269999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.5948</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.8014</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.30549999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="67">
+        <v>0.62109999999999999</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.68469999999999998</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.3034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.629</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.30730000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.57450000000000001</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.36680000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="16">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="C8" s="16">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="F8" s="16">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="73">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="C11" s="74">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="D11" s="74">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="E11" s="74">
+        <v>0.66269999999999996</v>
+      </c>
+      <c r="F11" s="74">
+        <v>0.3085</v>
+      </c>
+      <c r="G11" s="74">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H11" s="74">
+        <v>0.17150000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.996</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.996</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="31">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H16" s="31">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.9929</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.9244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,30 +9075,81 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>81</v>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="K1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="V1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -3055,11 +9174,48 @@
       <c r="H3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -3087,12 +9243,35 @@
       <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="44">
         <v>0.86009999999999998</v>
       </c>
       <c r="C5" s="2">
@@ -3116,8 +9295,31 @@
       <c r="I5" s="18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -3127,7 +9329,7 @@
       <c r="C6" s="18">
         <v>0.7278</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="18">
         <v>0.33139999999999997</v>
       </c>
       <c r="E6" s="18">
@@ -3145,15 +9347,38 @@
       <c r="I6" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="44">
         <v>0.71660000000000001</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="18">
         <v>0.54800000000000004</v>
       </c>
       <c r="D7" s="18">
@@ -3172,15 +9397,64 @@
         <v>0.76690000000000003</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -3205,316 +9479,301 @@
       <c r="H10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0.71819999999999995</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0.74929999999999997</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15">
-        <v>0.88090000000000002</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="37"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="15">
-        <v>0.80359999999999998</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.63590000000000002</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.95960000000000001</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.76390000000000002</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0.94910000000000005</v>
-      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="16">
-        <v>0.84279999999999999</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0.6946</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.81379999999999997</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0.97570000000000001</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0.97650000000000003</v>
-      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.99990000000000001</v>
+      </c>
       <c r="I19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="B21" s="16">
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.6946</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3522,1025 +9781,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="25" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="34">
-        <v>0</v>
-      </c>
-      <c r="C4" s="34">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>0.50339999999999996</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0.32740000000000002</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="H4" s="16">
-        <v>281167.71500000003</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="16">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="L4" s="16">
-        <v>1.89E-2</v>
-      </c>
-      <c r="M4" s="16">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0.48609999999999998</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0.1196</v>
-      </c>
-      <c r="P4" s="16">
-        <v>2.1604000000000001</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>42695.885600000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="34">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="C5" s="34">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="D5" s="34">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="E5" s="34">
-        <v>0.55379999999999996</v>
-      </c>
-      <c r="F5" s="34">
-        <v>6.8199999999999997E-2</v>
-      </c>
-      <c r="G5" s="34">
-        <v>3.2477999999999998</v>
-      </c>
-      <c r="H5" s="16">
-        <v>22034.2199</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="16">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="L5" s="16">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="M5" s="16">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0.67069999999999996</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0.89039999999999997</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>236538.296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="34">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="C6" s="34">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="D6" s="34">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="E6" s="62">
-        <v>0.69679999999999997</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0.52339999999999998</v>
-      </c>
-      <c r="G6" s="34">
-        <v>1.7269000000000001</v>
-      </c>
-      <c r="H6" s="16">
-        <v>31047.848699999999</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="16">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="L6" s="16">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="M6" s="16">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0.49869999999999998</v>
-      </c>
-      <c r="O6" s="16">
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="P6" s="16">
-        <v>2.9596</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>26082.993600000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="34">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="C7" s="34">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="D7" s="34">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="E7" s="34">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="F7" s="34">
-        <v>0.32040000000000002</v>
-      </c>
-      <c r="G7" s="34">
-        <v>1.5353000000000001</v>
-      </c>
-      <c r="H7" s="16">
-        <v>84454.841799999995</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1.09E-2</v>
-      </c>
-      <c r="L7" s="16">
-        <v>7.6E-3</v>
-      </c>
-      <c r="M7" s="16">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0.56020000000000003</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.2296</v>
-      </c>
-      <c r="P7" s="16">
-        <v>1.7061999999999999</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>60825.734100000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="34">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C8" s="34">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="D8" s="34">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="E8" s="34">
-        <v>0.4884</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0.1462</v>
-      </c>
-      <c r="G8" s="34">
-        <v>2.1781000000000001</v>
-      </c>
-      <c r="H8" s="16">
-        <v>39621.099600000001</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1.15E-2</v>
-      </c>
-      <c r="L8" s="16">
-        <v>1.44E-2</v>
-      </c>
-      <c r="M8" s="16">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0.2334</v>
-      </c>
-      <c r="P8" s="16">
-        <v>2.0196999999999998</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>18648.903200000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="34">
-        <v>9.5200000000000007E-2</v>
-      </c>
-      <c r="C9" s="34">
-        <v>6.0100000000000001E-2</v>
-      </c>
-      <c r="D9" s="34">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="E9" s="34">
-        <v>0.49740000000000001</v>
-      </c>
-      <c r="F9" s="34">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="G9" s="34">
-        <v>2.468</v>
-      </c>
-      <c r="H9" s="16">
-        <v>34894.470800000003</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="16">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="L9" s="16">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="M9" s="16">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0.73950000000000005</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0.38040000000000002</v>
-      </c>
-      <c r="P9" s="16">
-        <v>2.1153</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>23007.054400000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="36">
-        <v>0.3614</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0.27110000000000001</v>
-      </c>
-      <c r="D10" s="36">
-        <v>0.30980000000000002</v>
-      </c>
-      <c r="E10" s="35">
-        <v>0.77429999999999999</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0.55920000000000003</v>
-      </c>
-      <c r="G10" s="34">
-        <v>0.84589999999999999</v>
-      </c>
-      <c r="H10" s="16">
-        <v>263571.70299999998</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="16">
-        <v>2.87E-2</v>
-      </c>
-      <c r="L10" s="16">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M10" s="16">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0.1583</v>
-      </c>
-      <c r="P10" s="16">
-        <v>1.9795</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>44516.8848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="36">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="C11" s="36">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="D11" s="36">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="E11" s="34">
-        <v>0.4844</v>
-      </c>
-      <c r="F11" s="35">
-        <v>0.60629999999999995</v>
-      </c>
-      <c r="G11" s="35">
-        <v>0.48630000000000001</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1088693.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="34">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="C12" s="34">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="D12" s="34">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="E12" s="34">
-        <v>0.50970000000000004</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0.45669999999999999</v>
-      </c>
-      <c r="G12" s="34">
-        <v>0.70540000000000003</v>
-      </c>
-      <c r="H12" s="16">
-        <v>332273.04100000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="61">
-        <v>0.65680000000000005</v>
-      </c>
-      <c r="C13" s="50">
-        <v>0.39140000000000003</v>
-      </c>
-      <c r="D13" s="50">
-        <v>0.49049999999999999</v>
-      </c>
-      <c r="E13" s="63">
-        <v>0.68489999999999995</v>
-      </c>
-      <c r="F13" s="40">
-        <v>0.1636</v>
-      </c>
-      <c r="G13" s="42">
-        <v>1.8648</v>
-      </c>
-      <c r="H13" s="40">
-        <v>59706.029000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="36">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="C17" s="36">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D17" s="36">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="E17" s="36">
-        <v>0.371</v>
-      </c>
-      <c r="F17" s="36">
-        <v>0.32850000000000001</v>
-      </c>
-      <c r="G17" s="36">
-        <v>0.9859</v>
-      </c>
-      <c r="H17" s="36">
-        <v>9377.1252000000004</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="36">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="C18" s="36">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D18" s="36">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="E18" s="36">
-        <v>0.40039999999999998</v>
-      </c>
-      <c r="F18" s="36">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="G18" s="36">
-        <v>3.2277999999999998</v>
-      </c>
-      <c r="H18" s="36">
-        <v>761.76229999999998</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="36">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="C19" s="36">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="D19" s="36">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="F19" s="35">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="G19" s="36">
-        <v>1.0543</v>
-      </c>
-      <c r="H19" s="36">
-        <v>2173.4176000000002</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="36">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="C20" s="36">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="D20" s="36">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="E20" s="36">
-        <v>0.3982</v>
-      </c>
-      <c r="F20" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="G20" s="36">
-        <v>1.6344000000000001</v>
-      </c>
-      <c r="H20" s="36">
-        <v>2396.6592000000001</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="36">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="C21" s="36">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="D21" s="36">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="E21" s="36">
-        <v>0.40629999999999999</v>
-      </c>
-      <c r="F21" s="36">
-        <v>0.1613</v>
-      </c>
-      <c r="G21" s="36">
-        <v>2.1152000000000002</v>
-      </c>
-      <c r="H21" s="36">
-        <v>1475.2523000000001</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="36">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="C22" s="36">
-        <v>0.1341</v>
-      </c>
-      <c r="D22" s="36">
-        <v>0.1027</v>
-      </c>
-      <c r="E22" s="36">
-        <v>0.49020000000000002</v>
-      </c>
-      <c r="F22" s="36">
-        <v>0.53849999999999998</v>
-      </c>
-      <c r="G22" s="36">
-        <v>1.8137000000000001</v>
-      </c>
-      <c r="H22" s="36">
-        <v>1952.9346</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="36">
-        <v>0.57689999999999997</v>
-      </c>
-      <c r="C23" s="35">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="D23" s="36">
-        <v>0.59060000000000001</v>
-      </c>
-      <c r="E23" s="35">
-        <v>0.8196</v>
-      </c>
-      <c r="F23" s="36">
-        <v>0.59609999999999996</v>
-      </c>
-      <c r="G23" s="36">
-        <v>0.61380000000000001</v>
-      </c>
-      <c r="H23" s="36">
-        <v>20282.855100000001</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="36">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="C24" s="36">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="D24" s="36">
-        <v>2.63E-2</v>
-      </c>
-      <c r="E24" s="36">
-        <v>0.41049999999999998</v>
-      </c>
-      <c r="F24" s="36">
-        <v>0.56620000000000004</v>
-      </c>
-      <c r="G24" s="35">
-        <v>0.51619999999999999</v>
-      </c>
-      <c r="H24" s="36">
-        <v>18002.9997</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="36">
-        <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="C25" s="36">
-        <v>6.8500000000000005E-2</v>
-      </c>
-      <c r="D25" s="36">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="E25" s="36">
-        <v>0.46050000000000002</v>
-      </c>
-      <c r="F25" s="36">
-        <v>0.52049999999999996</v>
-      </c>
-      <c r="G25" s="36">
-        <v>0.66420000000000001</v>
-      </c>
-      <c r="H25" s="36">
-        <v>11199.053599999999</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="52">
-        <v>0.61639999999999995</v>
-      </c>
-      <c r="C26" s="45">
-        <v>0.5948</v>
-      </c>
-      <c r="D26" s="50">
-        <v>0.60540000000000005</v>
-      </c>
-      <c r="E26" s="45">
-        <v>0.8014</v>
-      </c>
-      <c r="F26" s="45">
-        <v>0.30549999999999999</v>
-      </c>
-      <c r="G26" s="51">
-        <v>2.0028000000000001</v>
-      </c>
-      <c r="H26" s="45">
-        <v>3453.6925999999999</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="49">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C30" s="48">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D30" s="48">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="E30" s="40">
-        <v>0.63219999999999998</v>
-      </c>
-      <c r="F30" s="40">
-        <v>0.6452</v>
-      </c>
-      <c r="G30" s="40">
-        <v>1.2584</v>
-      </c>
-      <c r="H30" s="40">
-        <v>2071.3243000000002</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="42">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C31" s="40">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D31" s="40">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="E31" s="40">
-        <v>0.63219999999999998</v>
-      </c>
-      <c r="F31" s="40">
-        <v>0.6452</v>
-      </c>
-      <c r="G31" s="42">
-        <v>1.2584</v>
-      </c>
-      <c r="H31" s="40">
-        <v>2071.3243000000002</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="42">
-        <v>0.53920000000000001</v>
-      </c>
-      <c r="C32" s="40">
-        <v>0.49120000000000003</v>
-      </c>
-      <c r="D32" s="40">
-        <v>0.5141</v>
-      </c>
-      <c r="E32" s="40">
-        <v>0.72689999999999999</v>
-      </c>
-      <c r="F32" s="42">
-        <v>0.59750000000000003</v>
-      </c>
-      <c r="G32" s="40">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="H32" s="40">
-        <v>20188.659500000002</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I12"/>
+      <selection activeCell="L2" sqref="L2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4552,7 +9798,7 @@
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -4560,7 +9806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4588,11 +9834,11 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="59" t="s">
+      <c r="M2" s="83"/>
+      <c r="N2" s="86" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -4600,11 +9846,11 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2">
@@ -4628,9 +9874,9 @@
       <c r="I3" s="5">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="60"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4638,8 +9884,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4666,7 +9912,7 @@
       <c r="I4" s="5">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -4682,8 +9928,8 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4710,7 +9956,7 @@
       <c r="I5" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="L5" s="60"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
@@ -4724,7 +9970,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4752,7 +9998,7 @@
       <c r="I6" s="2">
         <v>0.50039999999999996</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="86" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -4768,7 +10014,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4796,7 +10042,7 @@
       <c r="I7" s="2">
         <v>0.48759999999999998</v>
       </c>
-      <c r="L7" s="60"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>
@@ -4810,7 +10056,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -4839,7 +10085,7 @@
         <v>0.47820000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4868,12 +10114,12 @@
         <v>0.3483</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2">
         <v>0.85</v>
@@ -4897,7 +10143,7 @@
         <v>0.34139999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -4926,8 +10172,8 @@
         <v>0.28029999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="2"/>
@@ -4939,216 +10185,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="L13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="O15" s="2">
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.99590000000000001</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="R15" s="2">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.45619999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.85360000000000003</v>
-      </c>
-      <c r="O16" s="2">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.99480000000000002</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0.13059999999999999</v>
-      </c>
-      <c r="R16" s="2">
-        <v>7.7299999999999994E-2</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0.44769999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0.80869999999999997</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0.41239999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0.78620000000000001</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0.3674</v>
-      </c>
-    </row>
-    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.85060000000000002</v>
-      </c>
-      <c r="O19" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.89990000000000003</v>
-      </c>
-      <c r="R19" s="2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.71660000000000001</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.30659999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0.65949999999999998</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0.26860000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="N21" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0.1502</v>
-      </c>
     </row>
   </sheetData>
   <sortState ref="L14:T20">
@@ -5163,224 +10201,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="compute_edges" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="137">
   <si>
     <t>Dataset</t>
   </si>
@@ -398,9 +398,6 @@
     <t>GraRep (Hadamard)</t>
   </si>
   <si>
-    <t>VAE (Hadamard)</t>
-  </si>
-  <si>
     <t>* For ripple2vec and Deepwalk, Hadamard and Concatenation results are close.</t>
   </si>
   <si>
@@ -416,18 +413,6 @@
     <t>Testset 2: Changed labels (270 pos, 176 + 446 = 622 neg)</t>
   </si>
   <si>
-    <t>0.8849 0.3377 0.9457 0.4134 0.3681 0.8368 0.3687</t>
-  </si>
-  <si>
-    <t>0.8876 0.2952 0.9534 0.4181 0.3412 0.8324 0.3572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8922 0.1668 0.9728 0.4096 0.2321 0.7841 0.295 </t>
-  </si>
-  <si>
-    <t>0.8882 0.3191 0.9515 0.4246 0.3624 0.8375 0.3674</t>
-  </si>
-  <si>
     <t>GraRep (Sum)</t>
   </si>
   <si>
@@ -458,10 +443,34 @@
     <t>* Identifying negatives is key for this dataset</t>
   </si>
   <si>
-    <t>0.9    0.     1.     0.     0.     0.6881 0.1909</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.9    0.     1.     0.     0.     0.6877 0.1902</t>
+    <r>
+      <t xml:space="preserve">0.6898 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Due to chance?)</t>
+    </r>
+  </si>
+  <si>
+    <t>a = 0, β = 10</t>
+  </si>
+  <si>
+    <t>VGAE (Hadamard)</t>
+  </si>
+  <si>
+    <t>GraRep (SUM?)</t>
+  </si>
+  <si>
+    <t>7 0.1902</t>
+  </si>
+  <si>
+    <t>Unable to detect positives</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +590,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -836,14 +857,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -863,30 +903,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,6 +933,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEBF7FF"/>
+      <color rgb="FFE5E5FF"/>
+      <color rgb="FFEFEFFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCCCFF"/>
@@ -2490,7 +2530,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAE (Hadamard)</c:v>
+                  <c:v>VGAE (Hadamard)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4193,8 +4233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,7 +4667,7 @@
       <c r="K10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="84">
         <v>0.88629999999999998</v>
       </c>
       <c r="M10" s="18">
@@ -4675,7 +4715,7 @@
       <c r="K11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="91">
+      <c r="L11" s="84">
         <v>0.68679999999999997</v>
       </c>
       <c r="M11" s="2">
@@ -4697,7 +4737,7 @@
         <v>98</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4726,7 +4766,7 @@
         <v>49</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -5177,54 +5217,54 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="32">
         <v>0.88629999999999998</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="32">
         <v>0.92149999999999999</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="32">
         <v>0.85109999999999997</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="32">
         <v>0.86129999999999995</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="32">
         <v>0.89029999999999998</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="32">
         <v>0.95589999999999997</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="32">
         <v>0.95230000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="32">
         <v>0.68679999999999997</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="32">
         <v>0.72289999999999999</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="32">
         <v>0.65069999999999995</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="32">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="32">
         <v>0.69720000000000004</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="32">
         <v>0.72870000000000001</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="32">
         <v>0.67820000000000003</v>
       </c>
     </row>
@@ -5505,7 +5545,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5645,25 +5685,25 @@
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="81">
         <v>0.94930000000000003</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="81">
         <v>0.97130000000000005</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="81">
         <v>0.9274</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="81">
         <v>0.93049999999999999</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="81">
         <v>0.95040000000000002</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="81">
         <v>0.98719999999999997</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="81">
         <v>0.98599999999999999</v>
       </c>
       <c r="I6" s="17" t="s">
@@ -5732,25 +5772,25 @@
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="89">
+      <c r="B9" s="82">
         <v>0.86260000000000003</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="82">
         <v>0.89639999999999997</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="82">
         <v>0.82869999999999999</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="82">
         <v>0.83940000000000003</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="82">
         <v>0.86680000000000001</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G9" s="82">
         <v>0.91239999999999999</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="82">
         <v>0.87180000000000002</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -5787,65 +5827,72 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="32">
         <v>0.77059999999999995</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="32">
         <v>0.85109999999999997</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="32">
         <v>0.69010000000000005</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="32">
         <v>0.7339</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="32">
         <v>0.78769999999999996</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="32">
         <v>0.82709999999999995</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="32">
         <v>0.78580000000000005</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="32">
         <v>0.60070000000000001</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="32">
         <v>0.60270000000000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="32">
         <v>0.59870000000000001</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="32">
         <v>0.60109999999999997</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="32">
         <v>0.59950000000000003</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="32">
         <v>0.63749999999999996</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="32">
         <v>0.61270000000000002</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K24" s="9"/>
@@ -5871,7 +5918,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B33"/>
+      <selection activeCell="C15" sqref="C15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5890,7 +5937,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K1" t="s">
         <v>39</v>
@@ -5951,15 +5998,29 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.80010000000000003</v>
+      </c>
       <c r="K3" t="s">
         <v>40</v>
       </c>
@@ -6084,13 +6145,27 @@
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="C6" s="2">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.81699999999999995</v>
+      </c>
       <c r="K6" t="s">
         <v>42</v>
       </c>
@@ -6158,13 +6233,27 @@
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="C8" s="73">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.16869999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.32029999999999997</v>
+      </c>
       <c r="K8" t="s">
         <v>44</v>
       </c>
@@ -6197,13 +6286,27 @@
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="C9" s="2">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.2722</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.61060000000000003</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.37619999999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.39810000000000001</v>
+      </c>
       <c r="K9" t="s">
         <v>46</v>
       </c>
@@ -6236,13 +6339,27 @@
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="C10" s="2">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.47639999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.37230000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -6260,8 +6377,11 @@
       <c r="I11" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="106" t="s">
         <v>97</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -6271,15 +6391,27 @@
       <c r="B14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="C14" s="89">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.3377</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.94569999999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.36809999999999998</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.36870000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -6288,20 +6420,36 @@
       <c r="B15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="C15" s="89">
+        <v>0.9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.19089999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="108"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="106" t="s">
         <v>98</v>
       </c>
+      <c r="C17" s="108"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -6310,15 +6458,27 @@
       <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="C18" s="89">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.41810000000000003</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.3412</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.35720000000000002</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -6327,20 +6487,36 @@
       <c r="B19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="C19" s="89">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="108"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="106" t="s">
         <v>99</v>
       </c>
+      <c r="C21" s="108"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -6349,15 +6525,27 @@
       <c r="B22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="C22" s="89">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.1668</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.9728</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.2321</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.29499999999999998</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -6366,18 +6554,36 @@
       <c r="B23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="C23" s="89">
+        <v>0.9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.66979999999999995</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.1837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="108"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="106" t="s">
         <v>96</v>
       </c>
+      <c r="C25" s="108"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -6386,15 +6592,27 @@
       <c r="B26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="C26" s="89">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.42459999999999998</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.3624</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.3674</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -6403,13 +6621,27 @@
       <c r="B27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="C27" s="74">
+        <v>0.9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.1923</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6419,10 +6651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6436,7 +6668,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="87" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="48"/>
@@ -6447,25 +6679,25 @@
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
-      <c r="J1" s="92" t="s">
-        <v>134</v>
+      <c r="J1" s="85" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
+      <c r="A2" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -6601,23 +6833,23 @@
       <c r="A8" s="48"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="90"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
+      <c r="A9" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
@@ -6675,7 +6907,7 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="89">
         <v>0.60309999999999997</v>
       </c>
       <c r="C12" s="2">
@@ -6701,7 +6933,7 @@
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="96">
+      <c r="B13" s="89">
         <v>0.59399999999999997</v>
       </c>
       <c r="C13" s="2">
@@ -6727,7 +6959,7 @@
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="89">
         <v>0.50460000000000005</v>
       </c>
       <c r="C14" s="2">
@@ -6750,16 +6982,16 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
+      <c r="A16" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
@@ -6838,7 +7070,7 @@
       <c r="H19" s="2">
         <v>0.86319999999999997</v>
       </c>
-      <c r="J19" s="101"/>
+      <c r="J19" s="93"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -6850,7 +7082,7 @@
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="96">
+      <c r="B20" s="89">
         <v>0.82169999999999999</v>
       </c>
       <c r="C20" s="35">
@@ -6876,7 +7108,7 @@
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="89">
         <v>0.94910000000000005</v>
       </c>
       <c r="C21" s="35">
@@ -6900,7 +7132,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
-      <c r="B22" s="97"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -6990,7 +7222,7 @@
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="102">
+      <c r="B26" s="94">
         <v>0.78339999999999999</v>
       </c>
       <c r="C26" s="2">
@@ -7014,7 +7246,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2">
         <v>0.7601</v>
@@ -7040,7 +7272,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B28" s="2">
         <v>0.76280000000000003</v>
@@ -7066,7 +7298,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -7077,18 +7309,18 @@
       <c r="H29" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
+      <c r="A31" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
@@ -7146,13 +7378,13 @@
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="100">
+      <c r="B34" s="101">
         <v>0.98209999999999997</v>
       </c>
       <c r="C34" s="18">
         <v>0.98429999999999995</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="37">
         <v>0.9798</v>
       </c>
       <c r="E34" s="18">
@@ -7170,116 +7402,116 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="96">
-        <v>0.59060000000000001</v>
+        <v>47</v>
+      </c>
+      <c r="B35" s="102">
+        <v>0.93879999999999997</v>
       </c>
       <c r="C35" s="2">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.22020000000000001</v>
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="D35" s="35">
+        <v>0.92379999999999995</v>
       </c>
       <c r="E35" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.93459999999999999</v>
       </c>
       <c r="F35" s="2">
-        <v>0.70169999999999999</v>
+        <v>0.9415</v>
       </c>
       <c r="G35" s="2">
-        <v>0.80200000000000005</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="H35" s="2">
-        <v>0.77829999999999999</v>
+        <v>0.98909999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="96">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.95379999999999998</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.92379999999999995</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.93459999999999999</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.9415</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.98909999999999998</v>
-      </c>
+      <c r="A36" s="31"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
+      <c r="A37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.4824</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.44429999999999997</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2">
-        <v>0.47849999999999998</v>
+        <v>0.53649999999999998</v>
       </c>
       <c r="C38" s="2">
-        <v>0.61699999999999999</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="D38" s="2">
-        <v>0.33989999999999998</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="E38" s="2">
-        <v>0.4824</v>
+        <v>0.53</v>
       </c>
       <c r="F38" s="2">
-        <v>0.54100000000000004</v>
+        <v>0.56589999999999996</v>
       </c>
       <c r="G38" s="2">
-        <v>0.45550000000000002</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="H38" s="2">
-        <v>0.44429999999999997</v>
+        <v>0.49080000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.53649999999999998</v>
+        <v>66</v>
+      </c>
+      <c r="B39" s="89">
+        <v>0.59060000000000001</v>
       </c>
       <c r="C39" s="2">
-        <v>0.61839999999999995</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D39" s="2">
-        <v>0.45469999999999999</v>
+        <v>0.22020000000000001</v>
       </c>
       <c r="E39" s="2">
-        <v>0.53</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="F39" s="2">
-        <v>0.56589999999999996</v>
+        <v>0.70169999999999999</v>
       </c>
       <c r="G39" s="2">
-        <v>0.53849999999999998</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="H39" s="2">
-        <v>0.49080000000000001</v>
+        <v>0.77829999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -7336,7 +7568,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -7348,7 +7580,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -7357,18 +7589,6 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7380,7 +7600,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B10" sqref="B10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7501,7 +7721,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="104" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="75">
@@ -7513,8 +7733,8 @@
       <c r="D7" s="75">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="E7" s="76">
-        <v>0.68979999999999997</v>
+      <c r="E7" s="76" t="s">
+        <v>131</v>
       </c>
       <c r="F7" s="77">
         <v>-9.0700000000000003E-2</v>
@@ -7579,7 +7799,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="75">
@@ -7605,16 +7825,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="76">
         <v>0.39090000000000003</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="76">
         <v>0.25540000000000002</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="76">
         <v>0.309</v>
       </c>
       <c r="E11" s="76">
@@ -7631,7 +7851,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="78" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="75">
@@ -7660,7 +7880,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="78" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="75"/>
@@ -7675,7 +7895,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="78" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="75">
@@ -7704,7 +7924,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="78" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="78"/>
@@ -7719,25 +7939,25 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="103">
         <v>0.65549999999999997</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="76">
         <v>0.31209999999999999</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="76">
         <v>0.4229</v>
       </c>
       <c r="E16" s="75">
         <v>0.60319999999999996</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="76">
         <v>0.23899999999999999</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="76">
         <v>0.4229</v>
       </c>
       <c r="H16" s="75">
@@ -7929,8 +8149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,7 +9144,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="80" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="3">
@@ -8950,7 +9170,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="79" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="31">
@@ -9062,7 +9282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
@@ -9112,13 +9332,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>120</v>
+      <c r="A2" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="85" t="s">
         <v>80</v>
       </c>
       <c r="K2" t="s">
@@ -9434,8 +9654,8 @@
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>121</v>
+      <c r="A9" s="86" t="s">
+        <v>120</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
@@ -9616,7 +9836,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
-      <c r="B15" s="90"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -9834,11 +10054,11 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="86" t="s">
+      <c r="M2" s="96"/>
+      <c r="N2" s="99" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -9874,9 +10094,9 @@
       <c r="I3" s="5">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="87"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="100"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
@@ -9912,7 +10132,7 @@
       <c r="I4" s="5">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="99" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -9956,7 +10176,7 @@
       <c r="I5" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="L5" s="87"/>
+      <c r="L5" s="100"/>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
@@ -9998,7 +10218,7 @@
       <c r="I6" s="2">
         <v>0.50039999999999996</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="99" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -10042,7 +10262,7 @@
       <c r="I7" s="2">
         <v>0.48759999999999998</v>
       </c>
-      <c r="L7" s="87"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>

--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="compute_edges" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="unbalanced" sheetId="6" r:id="rId3"/>
     <sheet name="expt_verified" sheetId="10" r:id="rId4"/>
     <sheet name="clustering_evaluation" sheetId="8" r:id="rId5"/>
-    <sheet name="clustering_evaluation_2" sheetId="5" r:id="rId6"/>
+    <sheet name="clustering_evaluation_2" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="nSNE" sheetId="9" r:id="rId7"/>
     <sheet name="tune_hyperparameters" sheetId="4" r:id="rId8"/>
     <sheet name="unbalanced_Archive" sheetId="1" r:id="rId9"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="142">
   <si>
     <t>Dataset</t>
   </si>
@@ -393,9 +393,6 @@
   <si>
     <t>K = 128,  
 β = 0.5</t>
-  </si>
-  <si>
-    <t>GraRep (Hadamard)</t>
   </si>
   <si>
     <t>* For ripple2vec and Deepwalk, Hadamard and Concatenation results are close.</t>
@@ -461,16 +458,34 @@
     <t>a = 0, β = 10</t>
   </si>
   <si>
-    <t>VGAE (Hadamard)</t>
-  </si>
-  <si>
-    <t>GraRep (SUM?)</t>
-  </si>
-  <si>
     <t>7 0.1902</t>
   </si>
   <si>
     <t>Unable to detect positives</t>
+  </si>
+  <si>
+    <t>Uneven class distribution</t>
+  </si>
+  <si>
+    <t>C/T/D</t>
+  </si>
+  <si>
+    <t>0 identified as 1</t>
+  </si>
+  <si>
+    <t>1 identified as 0</t>
+  </si>
+  <si>
+    <t>TP/(TP+FP)</t>
+  </si>
+  <si>
+    <t>TN/(TN+FP)</t>
+  </si>
+  <si>
+    <t>TP/(TP+FN)</t>
+  </si>
+  <si>
+    <t>LINE and node2vec+ higher False Positive rate</t>
   </si>
 </sst>
 </file>
@@ -863,7 +878,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -884,24 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -924,6 +920,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2257,7 +2274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>node2vec</c:v>
+                  <c:v>GraRep (Sum)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2310,25 +2327,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.86260000000000003</c:v>
+                  <c:v>0.88629999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89639999999999997</c:v>
+                  <c:v>0.92149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82869999999999999</c:v>
+                  <c:v>0.85109999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83940000000000003</c:v>
+                  <c:v>0.86129999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86680000000000001</c:v>
+                  <c:v>0.89029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91239999999999999</c:v>
+                  <c:v>0.95589999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87180000000000002</c:v>
+                  <c:v>0.95230000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,7 +2365,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deepwalk</c:v>
+                  <c:v>node2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2401,25 +2418,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.84189999999999998</c:v>
+                  <c:v>0.86260000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85019999999999996</c:v>
+                  <c:v>0.89639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83360000000000001</c:v>
+                  <c:v>0.82869999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83650000000000002</c:v>
+                  <c:v>0.83940000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84319999999999995</c:v>
+                  <c:v>0.86680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90049999999999997</c:v>
+                  <c:v>0.91239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88149999999999995</c:v>
+                  <c:v>0.87180000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2456,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GraRep (Hadamard)</c:v>
+                  <c:v>Deepwalk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2492,25 +2509,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.77059999999999995</c:v>
+                  <c:v>0.84189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85109999999999997</c:v>
+                  <c:v>0.85019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69010000000000005</c:v>
+                  <c:v>0.83360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7339</c:v>
+                  <c:v>0.83650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78769999999999996</c:v>
+                  <c:v>0.84319999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82709999999999995</c:v>
+                  <c:v>0.90049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78580000000000005</c:v>
+                  <c:v>0.88149999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,7 +2547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VGAE (Hadamard)</c:v>
+                  <c:v>VGAE (Sum)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2583,25 +2600,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.60070000000000001</c:v>
+                  <c:v>0.68679999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60270000000000001</c:v>
+                  <c:v>0.72289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59870000000000001</c:v>
+                  <c:v>0.65069999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60109999999999997</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59950000000000003</c:v>
+                  <c:v>0.69720000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63749999999999996</c:v>
+                  <c:v>0.72870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61270000000000002</c:v>
+                  <c:v>0.67820000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,6 +2827,822 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraRep (Sum)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$B$31:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.36809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36870000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deepwalk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$C$31:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32029999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$D$31:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.37619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39810000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$E$31:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.61870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66090000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$F$31:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.31940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37230000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$G$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$G$31:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30869999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$H$31:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.73609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$I$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$I$31:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.72409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80010000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VGAE (Sum)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$J$31:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19089999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unbalanced!$K$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nSNE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>unbalanced!$A$31:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>unbalanced!$K$31:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.78059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C67F-42E2-82E2-85B7D4B3D81B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1509279503"/>
+        <c:axId val="1509284911"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1509279503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509284911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1509284911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509279503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2851,6 +3684,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3896,6 +4769,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3951,6 +5327,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4233,8 +5644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4667,7 +6078,7 @@
       <c r="K10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="84">
+      <c r="L10" s="83">
         <v>0.88629999999999998</v>
       </c>
       <c r="M10" s="18">
@@ -4715,7 +6126,7 @@
       <c r="K11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="84">
+      <c r="L11" s="83">
         <v>0.68679999999999997</v>
       </c>
       <c r="M11" s="2">
@@ -4737,7 +6148,7 @@
         <v>98</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4766,7 +6177,7 @@
         <v>49</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -5544,8 +6955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5677,7 +7088,7 @@
       <c r="H5" s="15">
         <v>0.98970000000000002</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5685,25 +7096,25 @@
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="18">
         <v>0.94930000000000003</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="18">
         <v>0.97130000000000005</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="18">
         <v>0.9274</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="18">
         <v>0.93049999999999999</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="18">
         <v>0.95040000000000002</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="18">
         <v>0.98719999999999997</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="18">
         <v>0.98599999999999999</v>
       </c>
       <c r="I6" s="17" t="s">
@@ -5769,130 +7180,126 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="82">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="C9" s="82">
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="D9" s="82">
-        <v>0.82869999999999999</v>
-      </c>
-      <c r="E9" s="82">
-        <v>0.83940000000000003</v>
-      </c>
-      <c r="F9" s="82">
-        <v>0.86680000000000001</v>
-      </c>
-      <c r="G9" s="82">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="H9" s="82">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>60</v>
+      <c r="A9" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="81">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C10" s="81">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="F10" s="81">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="G10" s="81">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H10" s="81">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B11" s="15">
         <v>0.84189999999999998</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="15">
         <v>0.85019999999999996</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D11" s="15">
         <v>0.83360000000000001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="15">
         <v>0.83650000000000002</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F11" s="15">
         <v>0.84319999999999995</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G11" s="15">
         <v>0.90049999999999997</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H11" s="15">
         <v>0.88149999999999995</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="32">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="C11" s="32">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="D11" s="32">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="E11" s="32">
-        <v>0.7339</v>
-      </c>
-      <c r="F11" s="32">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="G11" s="32">
-        <v>0.82709999999999995</v>
-      </c>
-      <c r="H11" s="32">
-        <v>0.78580000000000005</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
-        <v>133</v>
+      <c r="A12" s="100" t="s">
+        <v>121</v>
       </c>
       <c r="B12" s="32">
-        <v>0.60070000000000001</v>
+        <v>0.68679999999999997</v>
       </c>
       <c r="C12" s="32">
-        <v>0.60270000000000001</v>
+        <v>0.72289999999999999</v>
       </c>
       <c r="D12" s="32">
-        <v>0.59870000000000001</v>
+        <v>0.65069999999999995</v>
       </c>
       <c r="E12" s="32">
-        <v>0.60109999999999997</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="F12" s="32">
-        <v>0.59950000000000003</v>
+        <v>0.69720000000000004</v>
       </c>
       <c r="G12" s="32">
-        <v>0.63749999999999996</v>
+        <v>0.72870000000000001</v>
       </c>
       <c r="H12" s="32">
-        <v>0.61270000000000002</v>
+        <v>0.67820000000000003</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="A13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="10"/>
     </row>
     <row r="24" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K24" s="9"/>
@@ -5905,8 +7312,8 @@
     </row>
     <row r="25" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A3:I13">
-    <sortCondition descending="1" ref="B3"/>
+  <sortState ref="A3:I12">
+    <sortCondition descending="1" ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5915,10 +7322,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5937,7 +7344,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" t="s">
         <v>39</v>
@@ -5962,13 +7369,13 @@
       <c r="F2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="45" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="45" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -5998,7 +7405,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2">
         <v>0.94</v>
@@ -6053,13 +7460,27 @@
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="C4" s="2">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.58289999999999997</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.66090000000000004</v>
+      </c>
       <c r="K4" t="s">
         <v>43</v>
       </c>
@@ -6368,20 +7789,34 @@
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="C11" s="2">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.30869999999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>136</v>
+      <c r="D13" s="84" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -6391,7 +7826,7 @@
       <c r="B14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="88">
         <v>0.88490000000000002</v>
       </c>
       <c r="D14" s="2">
@@ -6420,7 +7855,7 @@
       <c r="B15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="88">
         <v>0.9</v>
       </c>
       <c r="D15" s="2">
@@ -6443,22 +7878,22 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="108"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="C16" s="101"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="108"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="101"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="88">
         <v>0.88759999999999994</v>
       </c>
       <c r="D18" s="2">
@@ -6480,14 +7915,14 @@
         <v>0.35720000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19" s="88">
         <v>0.9</v>
       </c>
       <c r="D19" s="2">
@@ -6506,26 +7941,26 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="108"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="101"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="108"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="101"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="88">
         <v>0.89219999999999999</v>
       </c>
       <c r="D22" s="2">
@@ -6547,14 +7982,14 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23" s="88">
         <v>0.9</v>
       </c>
       <c r="D23" s="2">
@@ -6576,23 +8011,23 @@
         <v>0.1837</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="108"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="101"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="108"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="101"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="88">
         <v>0.88819999999999999</v>
       </c>
       <c r="D26" s="2">
@@ -6614,7 +8049,7 @@
         <v>0.3674</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -6641,20 +8076,128 @@
       </c>
       <c r="I27" s="2">
         <v>0.1923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.36809999999999998</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.37619999999999998</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0.78059999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.39810000000000001</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.30869999999999997</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0.874</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6663,944 +8206,1468 @@
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="48"/>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
-      <c r="J1" s="85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="86" t="s">
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.4556</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.64039999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H4" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="K4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.41789999999999999</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>0.51880000000000004</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>0.48699999999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>0.55069999999999997</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>0.50329999999999997</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>0.50549999999999995</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.50760000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>0.86009999999999998</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>0.7399</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D6" s="44">
         <v>0.98029999999999995</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>0.97409999999999997</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>0.84079999999999999</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>0.98240000000000005</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>0.96130000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.4713</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.70740000000000003</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.61890000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>0.52959999999999996</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>0.7278</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>0.33139999999999997</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>0.52159999999999995</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>0.60740000000000005</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>0.57630000000000003</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>0.58389999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.46820000000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.62529999999999997</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>0.71660000000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>0.54800000000000004</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D8" s="44">
         <v>0.88519999999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>0.84</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>0.66010000000000002</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>0.61680000000000001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>0.76690000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.35959999999999998</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.67930000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="K9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="N9" s="35">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.75929999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C11" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H11" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B12" s="74">
         <v>0.49990000000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>0.99099999999999999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>0.57330000000000003</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>0.48060000000000003</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>0.49070000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B13" s="88">
         <v>0.60309999999999997</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>0.27389999999999998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>0.9345</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>0.80649999999999999</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>0.40510000000000002</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>0.84570000000000001</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>0.7913</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="89">
+      <c r="B14" s="88">
         <v>0.59399999999999997</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>0.26950000000000002</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>0.92059999999999997</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>0.7732</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>0.39900000000000002</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>0.7772</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>0.73839999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="89">
+      <c r="B15" s="88">
         <v>0.50460000000000005</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>0.99690000000000001</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>0.83509999999999995</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>0.69240000000000002</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>0.68730000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-    </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C18" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E18" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H18" s="22" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="74">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.77559999999999996</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.8498</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.92969999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.84870000000000001</v>
-      </c>
-      <c r="C19" s="35">
-        <v>0.9052</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="74">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.77559999999999996</v>
       </c>
       <c r="D19" s="2">
-        <v>0.82410000000000005</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="E19" s="2">
-        <v>0.69130000000000003</v>
+        <v>0.94</v>
       </c>
       <c r="F19" s="2">
-        <v>0.78359999999999996</v>
+        <v>0.8498</v>
       </c>
       <c r="G19" s="2">
-        <v>0.93959999999999999</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="H19" s="2">
-        <v>0.86319999999999997</v>
-      </c>
-      <c r="J19" s="93"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+        <v>0.92969999999999997</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="89">
-        <v>0.82169999999999999</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.84870000000000001</v>
       </c>
       <c r="C20" s="35">
-        <v>0.88300000000000001</v>
+        <v>0.9052</v>
       </c>
       <c r="D20" s="2">
-        <v>0.79520000000000002</v>
+        <v>0.82410000000000005</v>
       </c>
       <c r="E20" s="2">
-        <v>0.65190000000000003</v>
+        <v>0.69130000000000003</v>
       </c>
       <c r="F20" s="2">
-        <v>0.75</v>
+        <v>0.78359999999999996</v>
       </c>
       <c r="G20" s="2">
-        <v>0.9173</v>
+        <v>0.93959999999999999</v>
       </c>
       <c r="H20" s="2">
-        <v>0.82769999999999999</v>
-      </c>
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="J20" s="92"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="88">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.9173</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.82769999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="89">
+      <c r="B22" s="88">
         <v>0.94910000000000005</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C22" s="35">
         <v>0.86519999999999997</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>0.98550000000000004</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>0.96379999999999999</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>0.91100000000000003</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>0.98719999999999997</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-    </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.64510000000000001</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.5081</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.70450000000000002</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.41610000000000003</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.4551</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.6512</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.4405</v>
-      </c>
+      <c r="A23" s="31"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2">
-        <v>0.68520000000000003</v>
+        <v>0.64510000000000001</v>
       </c>
       <c r="C24" s="2">
-        <v>0.74299999999999999</v>
+        <v>0.5081</v>
       </c>
       <c r="D24" s="2">
-        <v>0.66010000000000002</v>
+        <v>0.70450000000000002</v>
       </c>
       <c r="E24" s="2">
-        <v>0.48980000000000001</v>
+        <v>0.41610000000000003</v>
       </c>
       <c r="F24" s="2">
-        <v>0.58989999999999998</v>
+        <v>0.4551</v>
       </c>
       <c r="G24" s="2">
-        <v>0.74780000000000002</v>
+        <v>0.6512</v>
       </c>
       <c r="H24" s="2">
-        <v>0.5081</v>
+        <v>0.4405</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2">
-        <v>0.79549999999999998</v>
+        <v>0.68520000000000003</v>
       </c>
       <c r="C25" s="2">
-        <v>0.80669999999999997</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>0.79069999999999996</v>
+        <v>0.66010000000000002</v>
       </c>
       <c r="E25" s="2">
-        <v>0.62629999999999997</v>
+        <v>0.48980000000000001</v>
       </c>
       <c r="F25" s="2">
-        <v>0.70489999999999997</v>
+        <v>0.58989999999999998</v>
       </c>
       <c r="G25" s="2">
-        <v>0.87019999999999997</v>
+        <v>0.74780000000000002</v>
       </c>
       <c r="H25" s="2">
-        <v>0.72289999999999999</v>
+        <v>0.5081</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="94">
-        <v>0.78339999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.79549999999999998</v>
       </c>
       <c r="C26" s="2">
-        <v>0.78520000000000001</v>
+        <v>0.80669999999999997</v>
       </c>
       <c r="D26" s="2">
-        <v>0.78259999999999996</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="E26" s="2">
-        <v>0.61109999999999998</v>
+        <v>0.62629999999999997</v>
       </c>
       <c r="F26" s="2">
-        <v>0.68710000000000004</v>
+        <v>0.70489999999999997</v>
       </c>
       <c r="G26" s="2">
-        <v>0.85429999999999995</v>
+        <v>0.87019999999999997</v>
       </c>
       <c r="H26" s="2">
-        <v>0.70220000000000005</v>
+        <v>0.72289999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.7601</v>
+        <v>15</v>
+      </c>
+      <c r="B27" s="93">
+        <v>0.78339999999999999</v>
       </c>
       <c r="C27" s="2">
-        <v>0.75629999999999997</v>
+        <v>0.78520000000000001</v>
       </c>
       <c r="D27" s="2">
-        <v>0.76170000000000004</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="E27" s="2">
-        <v>0.57930000000000004</v>
+        <v>0.61109999999999998</v>
       </c>
       <c r="F27" s="2">
-        <v>0.6552</v>
+        <v>0.68710000000000004</v>
       </c>
       <c r="G27" s="2">
-        <v>0.8427</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="H27" s="2">
-        <v>0.72450000000000003</v>
+        <v>0.70220000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2">
-        <v>0.76280000000000003</v>
+        <v>0.7601</v>
       </c>
       <c r="C28" s="2">
-        <v>0.76519999999999999</v>
+        <v>0.75629999999999997</v>
       </c>
       <c r="D28" s="2">
         <v>0.76170000000000004</v>
       </c>
       <c r="E28" s="2">
-        <v>0.58399999999999996</v>
+        <v>0.57930000000000004</v>
       </c>
       <c r="F28" s="2">
-        <v>0.66080000000000005</v>
+        <v>0.6552</v>
       </c>
       <c r="G28" s="2">
-        <v>0.84219999999999995</v>
+        <v>0.8427</v>
       </c>
       <c r="H28" s="2">
-        <v>0.7157</v>
+        <v>0.72450000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
+      <c r="B29" s="2">
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.7157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B33" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C33" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D33" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E33" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="74">
-        <v>0.76480000000000004</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.95740000000000003</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.57220000000000004</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.69369999999999998</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.80379999999999996</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.87470000000000003</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.81589999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="101">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="C34" s="18">
-        <v>0.98429999999999995</v>
-      </c>
-      <c r="D34" s="37">
-        <v>0.9798</v>
-      </c>
-      <c r="E34" s="18">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="F34" s="18">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="G34" s="18">
-        <v>0.99309999999999998</v>
-      </c>
-      <c r="H34" s="18">
-        <v>0.98119999999999996</v>
+        <v>16</v>
+      </c>
+      <c r="B34" s="74">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.69369999999999998</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.81589999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="94">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="D35" s="37">
+        <v>0.9798</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0.98119999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="102">
+      <c r="B36" s="95">
         <v>0.93879999999999997</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>0.95379999999999998</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D36" s="35">
         <v>0.92379999999999995</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>0.93459999999999999</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F36" s="2">
         <v>0.9415</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H36" s="2">
         <v>0.98909999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-    </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.47849999999999998</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.33989999999999998</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.4824</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0.45550000000000002</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0.44429999999999997</v>
-      </c>
+      <c r="A37" s="31"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.4824</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.44429999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B39" s="5">
         <v>0.53649999999999998</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="5">
         <v>0.61839999999999995</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D39" s="5">
         <v>0.45469999999999999</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E39" s="5">
         <v>0.53</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F39" s="5">
         <v>0.56589999999999996</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G39" s="5">
         <v>0.53849999999999998</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H39" s="5">
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="89">
+      <c r="B40" s="108">
         <v>0.59060000000000001</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="5">
         <v>0.96099999999999997</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="5">
         <v>0.22020000000000001</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E40" s="5">
         <v>0.55300000000000005</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F40" s="5">
         <v>0.70169999999999999</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G40" s="5">
         <v>0.80200000000000005</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H40" s="5">
         <v>0.77829999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.67110000000000003</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.88339999999999996</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.4587</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.62109999999999999</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.72909999999999997</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.70269999999999999</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0.5998</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2">
-        <v>0.64749999999999996</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="C41" s="2">
-        <v>0.89959999999999996</v>
+        <v>0.88339999999999996</v>
       </c>
       <c r="D41" s="2">
-        <v>0.39550000000000002</v>
+        <v>0.4587</v>
       </c>
       <c r="E41" s="2">
-        <v>0.59819999999999995</v>
+        <v>0.62109999999999999</v>
       </c>
       <c r="F41" s="2">
-        <v>0.71850000000000003</v>
+        <v>0.72909999999999997</v>
       </c>
       <c r="G41" s="2">
-        <v>0.75029999999999997</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="H41" s="2">
-        <v>0.7016</v>
+        <v>0.5998</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.7016</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.73450000000000004</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.87529999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.44529999999999997</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.6915</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.1991</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.5212</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.4718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.73089999999999999</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.87580000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.87129999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="31">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="C52" s="31">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="D52" s="31">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="E52" s="31">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="F52" s="31">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="G52" s="31">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="H52" s="31">
+        <v>0.85570000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.6704</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.63009999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="D57" s="35">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.4355</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.54869999999999997</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.33829999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="35">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.99850000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G11"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7615,20 +9682,25 @@
     <col min="8" max="8" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.28515625" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="24" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="24"/>
+    <col min="11" max="11" width="13.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>109</v>
       </c>
@@ -7641,8 +9713,11 @@
       <c r="H3" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
@@ -7667,8 +9742,26 @@
       <c r="H4" s="47" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>11</v>
       </c>
@@ -7693,8 +9786,26 @@
       <c r="H5" s="61">
         <v>0.25600000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="75">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="L5" s="75">
+        <v>1.89E-2</v>
+      </c>
+      <c r="M5" s="75">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="N5" s="75">
+        <v>0.48609999999999998</v>
+      </c>
+      <c r="O5" s="75">
+        <v>0.1196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>12</v>
       </c>
@@ -7719,9 +9830,27 @@
       <c r="H6" s="75">
         <v>3.73E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="J6" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="75">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="L6" s="75">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M6" s="75">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="N6" s="75">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="O6" s="75">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="75">
@@ -7734,7 +9863,7 @@
         <v>1.9900000000000001E-2</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="77">
         <v>-9.0700000000000003E-2</v>
@@ -7745,8 +9874,26 @@
       <c r="H7" s="75">
         <v>0.53159999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="75">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="L7" s="75">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="M7" s="75">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="N7" s="75">
+        <v>0.49869999999999998</v>
+      </c>
+      <c r="O7" s="75">
+        <v>7.9100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>13</v>
       </c>
@@ -7771,8 +9918,26 @@
       <c r="H8" s="75">
         <v>0.39360000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="75">
+        <v>1.09E-2</v>
+      </c>
+      <c r="L8" s="75">
+        <v>7.6E-3</v>
+      </c>
+      <c r="M8" s="75">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="N8" s="75">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="O8" s="75">
+        <v>0.2296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>15</v>
       </c>
@@ -7797,9 +9962,27 @@
       <c r="H9" s="75">
         <v>0.1656</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="J9" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="75">
+        <v>1.15E-2</v>
+      </c>
+      <c r="L9" s="75">
+        <v>1.44E-2</v>
+      </c>
+      <c r="M9" s="75">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N9" s="75">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="O9" s="75">
+        <v>0.2334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="75">
@@ -7823,9 +10006,27 @@
       <c r="H10" s="75">
         <v>0.30649999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="J10" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="75">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="L10" s="75">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="M10" s="75">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="N10" s="75">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="O10" s="75">
+        <v>0.38040000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="76">
@@ -7849,8 +10050,26 @@
       <c r="H11" s="75">
         <v>0.53490000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="75">
+        <v>2.87E-2</v>
+      </c>
+      <c r="L11" s="75">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M11" s="75">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="N11" s="75">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="O11" s="75">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
         <v>18</v>
       </c>
@@ -7879,7 +10098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
         <v>18</v>
       </c>
@@ -7894,7 +10113,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="78" t="s">
         <v>77</v>
       </c>
@@ -7923,7 +10142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="s">
         <v>77</v>
       </c>
@@ -7938,11 +10157,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="105" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="96">
         <v>0.65549999999999997</v>
       </c>
       <c r="C16" s="76">
@@ -7973,171 +10192,6 @@
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
       <c r="H17" s="69"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="75">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="C20" s="75">
-        <v>1.89E-2</v>
-      </c>
-      <c r="D20" s="75">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="E20" s="75">
-        <v>0.48609999999999998</v>
-      </c>
-      <c r="F20" s="75">
-        <v>0.1196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="75">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="C21" s="75">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="D21" s="75">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="E21" s="75">
-        <v>0.67069999999999996</v>
-      </c>
-      <c r="F21" s="75">
-        <v>0.56200000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="75">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="C22" s="75">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="D22" s="75">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="E22" s="75">
-        <v>0.49869999999999998</v>
-      </c>
-      <c r="F22" s="75">
-        <v>7.9100000000000004E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="75">
-        <v>1.09E-2</v>
-      </c>
-      <c r="C23" s="75">
-        <v>7.6E-3</v>
-      </c>
-      <c r="D23" s="75">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="E23" s="75">
-        <v>0.56020000000000003</v>
-      </c>
-      <c r="F23" s="75">
-        <v>0.2296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="75">
-        <v>1.15E-2</v>
-      </c>
-      <c r="C24" s="75">
-        <v>1.44E-2</v>
-      </c>
-      <c r="D24" s="75">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="E24" s="75">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="F24" s="75">
-        <v>0.2334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="75">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="C25" s="75">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="D25" s="75">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="E25" s="75">
-        <v>0.73950000000000005</v>
-      </c>
-      <c r="F25" s="75">
-        <v>0.38040000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="75">
-        <v>2.87E-2</v>
-      </c>
-      <c r="C26" s="75">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D26" s="75">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="E26" s="75">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="F26" s="75">
-        <v>0.1583</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8149,8 +10203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9332,13 +11386,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
-        <v>119</v>
+      <c r="A2" s="85" t="s">
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="84" t="s">
         <v>80</v>
       </c>
       <c r="K2" t="s">
@@ -9654,8 +11708,8 @@
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
-        <v>120</v>
+      <c r="A9" s="85" t="s">
+        <v>119</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
@@ -9836,7 +11890,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
-      <c r="B15" s="83"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -10054,11 +12108,11 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="99" t="s">
+      <c r="M2" s="103"/>
+      <c r="N2" s="106" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -10094,9 +12148,9 @@
       <c r="I3" s="5">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L3" s="97"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="100"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="107"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
@@ -10132,7 +12186,7 @@
       <c r="I4" s="5">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L4" s="99" t="s">
+      <c r="L4" s="106" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -10176,7 +12230,7 @@
       <c r="I5" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="L5" s="100"/>
+      <c r="L5" s="107"/>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
@@ -10218,7 +12272,7 @@
       <c r="I6" s="2">
         <v>0.50039999999999996</v>
       </c>
-      <c r="L6" s="99" t="s">
+      <c r="L6" s="106" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -10262,7 +12316,7 @@
       <c r="I7" s="2">
         <v>0.48759999999999998</v>
       </c>
-      <c r="L7" s="100"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>

--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -921,6 +921,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,9 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,7 +1009,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1582,7 +1581,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3576,7 +3574,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6956,7 +6953,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9246,7 +9243,7 @@
       <c r="A40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="108">
+      <c r="B40" s="102">
         <v>0.59060000000000001</v>
       </c>
       <c r="C40" s="5">
@@ -12108,11 +12105,11 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="106" t="s">
+      <c r="M2" s="104"/>
+      <c r="N2" s="107" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -12148,9 +12145,9 @@
       <c r="I3" s="5">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="107"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="108"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
@@ -12186,7 +12183,7 @@
       <c r="I4" s="5">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="107" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -12230,7 +12227,7 @@
       <c r="I5" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="L5" s="107"/>
+      <c r="L5" s="108"/>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
@@ -12272,7 +12269,7 @@
       <c r="I6" s="2">
         <v>0.50039999999999996</v>
       </c>
-      <c r="L6" s="106" t="s">
+      <c r="L6" s="107" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -12316,7 +12313,7 @@
       <c r="I7" s="2">
         <v>0.48759999999999998</v>
       </c>
-      <c r="L7" s="107"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>

--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="149">
   <si>
     <t>Dataset</t>
   </si>
@@ -513,9 +513,6 @@
   <si>
     <t>Order 3</t>
   </si>
-  <si>
-    <t>0.019   0.019   0.019   0.6681 -0.1007  0.019   0.519</t>
-  </si>
 </sst>
 </file>
 
@@ -760,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -962,24 +959,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -998,9 +977,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1044,6 +1020,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,7 +1113,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1686,7 +1685,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1793,7 +1791,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2365,7 +2362,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2473,7 +2469,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3540,7 +3535,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9502,7 +9496,7 @@
       <c r="A2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="47" t="s">
@@ -9517,7 +9511,7 @@
       <c r="F2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="101" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="47" t="s">
@@ -10142,7 +10136,7 @@
       <c r="A14" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -10157,7 +10151,7 @@
       <c r="F14" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="107" t="s">
+      <c r="G14" s="101" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="47" t="s">
@@ -10410,7 +10404,7 @@
       <c r="A26" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="47" t="s">
@@ -10425,7 +10419,7 @@
       <c r="F26" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="107" t="s">
+      <c r="G26" s="101" t="s">
         <v>50</v>
       </c>
       <c r="H26" s="47" t="s">
@@ -10675,7 +10669,7 @@
       <c r="A38" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -10690,7 +10684,7 @@
       <c r="F38" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="107" t="s">
+      <c r="G38" s="101" t="s">
         <v>50</v>
       </c>
       <c r="H38" s="47" t="s">
@@ -10991,11 +10985,11 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="102"/>
-      <c r="N2" s="105" t="s">
+      <c r="M2" s="130"/>
+      <c r="N2" s="133" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -11031,9 +11025,9 @@
       <c r="I3" s="5">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="106"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="134"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
@@ -11069,7 +11063,7 @@
       <c r="I4" s="5">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="133" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -11113,7 +11107,7 @@
       <c r="I5" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="L5" s="106"/>
+      <c r="L5" s="134"/>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
@@ -11155,7 +11149,7 @@
       <c r="I6" s="2">
         <v>0.50039999999999996</v>
       </c>
-      <c r="L6" s="105" t="s">
+      <c r="L6" s="133" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -11199,7 +11193,7 @@
       <c r="I7" s="2">
         <v>0.48759999999999998</v>
       </c>
-      <c r="L7" s="106"/>
+      <c r="L7" s="134"/>
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>
@@ -12914,7 +12908,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="123" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2">
@@ -13203,8 +13197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13691,7 +13685,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="101" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -13837,7 +13831,7 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="47" t="s">
@@ -13994,7 +13988,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="102" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="16">
@@ -14005,7 +13999,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="102" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="2">
@@ -14016,7 +14010,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="102" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2">
@@ -14027,7 +14021,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="102" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="2">
@@ -14038,7 +14032,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="102" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2">
@@ -14049,7 +14043,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="102" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="2">
@@ -14060,7 +14054,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="107" t="s">
         <v>138</v>
       </c>
       <c r="B32" s="2">
@@ -14071,7 +14065,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="102" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="2">
@@ -14082,7 +14076,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="102" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="2">
@@ -14093,7 +14087,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="107" t="s">
         <v>119</v>
       </c>
       <c r="B35" s="2">
@@ -14177,7 +14171,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="105" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="47" t="s">
@@ -14698,7 +14692,7 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="101" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
@@ -14828,7 +14822,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="107" t="s">
+      <c r="A27" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="45" t="s">
@@ -14967,8 +14961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14997,7 +14991,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="115" t="s">
         <v>107</v>
       </c>
     </row>
@@ -15009,21 +15003,21 @@
         <v>101</v>
       </c>
       <c r="G3" s="84"/>
-      <c r="H3" s="119" t="s">
+      <c r="H3" s="112" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
       <c r="J4" s="21" t="s">
         <v>76</v>
       </c>
@@ -15293,15 +15287,30 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
+      <c r="B11" s="14">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2.18E-2</v>
+      </c>
+      <c r="E11" s="135">
+        <v>0.6946</v>
+      </c>
+      <c r="F11" s="14">
+        <v>-8.6699999999999999E-2</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.59689999999999999</v>
+      </c>
       <c r="J11" s="75" t="s">
         <v>45</v>
       </c>
@@ -15401,7 +15410,7 @@
       <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="104" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -15505,7 +15514,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="106" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="96">
@@ -15531,17 +15540,17 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -15567,7 +15576,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="106" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="76">
@@ -15671,7 +15680,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="104" t="s">
         <v>146</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -15700,51 +15709,91 @@
       <c r="A28" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="F28" s="14">
+        <v>-0.1007</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0.51900000000000002</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="B29" s="14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C29" s="14">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2.58E-2</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="F29" s="14">
+        <v>-0.11020000000000001</v>
+      </c>
+      <c r="G29" s="14">
+        <v>2.58E-2</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.61080000000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="14">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2.18E-2</v>
+      </c>
+      <c r="E30" s="135">
+        <v>0.6946</v>
+      </c>
+      <c r="F30" s="14">
+        <v>-8.6699999999999999E-2</v>
+      </c>
+      <c r="G30" s="14">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0.59689999999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
@@ -15840,7 +15889,7 @@
       <c r="E36" s="74">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F36" s="113">
+      <c r="F36" s="107">
         <v>-2.0500000000000001E-2</v>
       </c>
       <c r="G36" s="74">
@@ -15918,7 +15967,7 @@
       <c r="E39" s="74">
         <v>0.58789999999999998</v>
       </c>
-      <c r="F39" s="113">
+      <c r="F39" s="107">
         <v>-1.61E-2</v>
       </c>
       <c r="G39" s="74">
@@ -15932,22 +15981,22 @@
       <c r="A40" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="124">
+      <c r="B40" s="117">
         <v>0.57689999999999997</v>
       </c>
-      <c r="C40" s="124">
+      <c r="C40" s="117">
         <v>0.60499999999999998</v>
       </c>
-      <c r="D40" s="124">
+      <c r="D40" s="117">
         <v>0.59060000000000001</v>
       </c>
-      <c r="E40" s="124">
+      <c r="E40" s="117">
         <v>0.8196</v>
       </c>
-      <c r="F40" s="124">
+      <c r="F40" s="117">
         <v>0.6986</v>
       </c>
-      <c r="G40" s="124">
+      <c r="G40" s="117">
         <v>0.59050000000000002</v>
       </c>
       <c r="H40" s="74">
@@ -15958,25 +16007,25 @@
       <c r="A41" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="125">
+      <c r="B41" s="118">
         <v>0.61639999999999995</v>
       </c>
-      <c r="C41" s="124">
+      <c r="C41" s="117">
         <v>0.5948</v>
       </c>
-      <c r="D41" s="124">
+      <c r="D41" s="117">
         <v>0.60540000000000005</v>
       </c>
-      <c r="E41" s="124">
+      <c r="E41" s="117">
         <v>0.8014</v>
       </c>
-      <c r="F41" s="124">
+      <c r="F41" s="117">
         <v>0.68020000000000003</v>
       </c>
-      <c r="G41" s="124">
+      <c r="G41" s="117">
         <v>0.60529999999999995</v>
       </c>
-      <c r="H41" s="123">
+      <c r="H41" s="116">
         <v>0.30549999999999999</v>
       </c>
     </row>
@@ -15990,7 +16039,7 @@
       <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="104" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="51" t="s">
@@ -16094,36 +16143,36 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="127" t="s">
+      <c r="A47" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="128">
+      <c r="B47" s="121">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="C47" s="128">
+      <c r="C47" s="121">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="D47" s="128">
+      <c r="D47" s="121">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="E47" s="128">
+      <c r="E47" s="121">
         <v>0.46</v>
       </c>
-      <c r="F47" s="128">
+      <c r="F47" s="121">
         <v>-3.0800000000000001E-2</v>
       </c>
-      <c r="G47" s="128">
+      <c r="G47" s="121">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="H47" s="128">
+      <c r="H47" s="121">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
+      <c r="A48" s="103"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="51" t="s">
@@ -16149,7 +16198,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="106" t="s">
         <v>95</v>
       </c>
       <c r="B50" s="16">
@@ -16227,33 +16276,33 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="129" t="s">
+      <c r="A53" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="128">
+      <c r="B53" s="121">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="C53" s="128">
+      <c r="C53" s="121">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="D53" s="128">
+      <c r="D53" s="121">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="E53" s="128">
+      <c r="E53" s="121">
         <v>0.52629999999999999</v>
       </c>
-      <c r="F53" s="128">
+      <c r="F53" s="121">
         <v>-4.2799999999999998E-2</v>
       </c>
-      <c r="G53" s="128">
+      <c r="G53" s="121">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="H53" s="128">
+      <c r="H53" s="121">
         <v>0.98219999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="110" t="s">
+      <c r="A55" s="104" t="s">
         <v>146</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -16282,25 +16331,25 @@
       <c r="A56" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="132">
+      <c r="B56" s="125">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C56" s="132">
+      <c r="C56" s="125">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="D56" s="132">
+      <c r="D56" s="125">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="E56" s="132">
+      <c r="E56" s="125">
         <v>0.58120000000000005</v>
       </c>
-      <c r="F56" s="132">
+      <c r="F56" s="125">
         <v>-2.07E-2</v>
       </c>
-      <c r="G56" s="132">
+      <c r="G56" s="125">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="H56" s="132">
+      <c r="H56" s="125">
         <v>0.66749999999999998</v>
       </c>
     </row>
@@ -16308,51 +16357,51 @@
       <c r="A57" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="118">
+      <c r="B57" s="111">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="C57" s="132">
+      <c r="C57" s="125">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="D57" s="132">
+      <c r="D57" s="125">
         <v>3.1E-2</v>
       </c>
-      <c r="E57" s="132">
+      <c r="E57" s="125">
         <v>0.56779999999999997</v>
       </c>
-      <c r="F57" s="132">
+      <c r="F57" s="125">
         <v>-2.87E-2</v>
       </c>
-      <c r="G57" s="132">
+      <c r="G57" s="125">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="H57" s="132">
+      <c r="H57" s="125">
         <v>0.75470000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="112" t="s">
+      <c r="A58" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="133">
+      <c r="B58" s="126">
         <v>1.29E-2</v>
       </c>
-      <c r="C58" s="117">
+      <c r="C58" s="110">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="D58" s="117">
+      <c r="D58" s="110">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="E58" s="117">
+      <c r="E58" s="110">
         <v>0.58789999999999998</v>
       </c>
-      <c r="F58" s="134">
+      <c r="F58" s="127">
         <v>-1.61E-2</v>
       </c>
-      <c r="G58" s="117">
+      <c r="G58" s="110">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="H58" s="117">
+      <c r="H58" s="110">
         <v>0.74390000000000001</v>
       </c>
     </row>
@@ -17056,24 +17105,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="108" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="115"/>
+      <c r="G2" s="128"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -17166,47 +17215,47 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="107">
+      <c r="B7" s="101">
         <v>0.88970000000000005</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="105">
         <v>0.9556</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="105">
         <v>0.3624</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="105">
         <v>0.3674</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="101">
         <v>0.85309999999999997</v>
       </c>
-      <c r="G7" s="107">
+      <c r="G7" s="101">
         <v>0.99870000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="108" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115" t="s">
+      <c r="C10" s="128"/>
+      <c r="D10" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115" t="s">
+      <c r="E10" s="128"/>
+      <c r="F10" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="115"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -17230,25 +17279,25 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="111">
+      <c r="B12" s="105">
         <v>0.68679999999999997</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="109">
         <v>0.72870000000000001</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="105">
         <v>0</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="101">
         <v>0.19089999999999999</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="101">
         <v>0.83430000000000004</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="101">
         <v>0.90910000000000002</v>
       </c>
     </row>

--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="compute_edges" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="157">
   <si>
     <t>Dataset</t>
   </si>
@@ -513,6 +513,31 @@
   <si>
     <t>Order 3</t>
   </si>
+  <si>
+    <t>SDNE *tune α, β = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train_Test 
+2 clusters: Pos/Neg </t>
+  </si>
+  <si>
+    <t>VGAE (sum)</t>
+  </si>
+  <si>
+    <t>a0_b10</t>
+  </si>
+  <si>
+    <t>a0.1_b10</t>
+  </si>
+  <si>
+    <t>a0.2_b10</t>
+  </si>
+  <si>
+    <t>a0.3_b10</t>
+  </si>
+  <si>
+    <t>a0.4_b10</t>
+  </si>
 </sst>
 </file>
 
@@ -757,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1020,6 +1045,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,9 +1069,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,6 +1146,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1685,6 +1719,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1791,6 +1826,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2362,6 +2398,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2469,6 +2506,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3535,6 +3573,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4431,6 +4470,581 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>expt_verified!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec + </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>expt_verified!$B$33:$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>expt_verified!$B$34:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.59060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77829999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0F6-4086-903A-1542810C2247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>expt_verified!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>expt_verified!$B$33:$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>expt_verified!$B$35:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.78480000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81730000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80669999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0F6-4086-903A-1542810C2247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>expt_verified!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>expt_verified!$B$33:$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>expt_verified!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.98209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98119999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0F6-4086-903A-1542810C2247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>expt_verified!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nSNE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>expt_verified!$B$33:$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>expt_verified!$B$37:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98909999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A0F6-4086-903A-1542810C2247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="295911567"/>
+        <c:axId val="295914895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="295911567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295914895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="295914895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295911567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -5076,7 +5690,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5976,6 +6590,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8492,6 +9146,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9132,6 +10289,41 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9461,7 +10653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
@@ -10985,11 +12177,11 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="130"/>
-      <c r="N2" s="133" t="s">
+      <c r="M2" s="131"/>
+      <c r="N2" s="134" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -11025,9 +12217,9 @@
       <c r="I3" s="5">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L3" s="131"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="134"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
@@ -11063,7 +12255,7 @@
       <c r="I4" s="5">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L4" s="133" t="s">
+      <c r="L4" s="134" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -11107,7 +12299,7 @@
       <c r="I5" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="L5" s="134"/>
+      <c r="L5" s="135"/>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
@@ -11149,7 +12341,7 @@
       <c r="I6" s="2">
         <v>0.50039999999999996</v>
       </c>
-      <c r="L6" s="133" t="s">
+      <c r="L6" s="134" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -11193,7 +12385,7 @@
       <c r="I7" s="2">
         <v>0.48759999999999998</v>
       </c>
-      <c r="L7" s="134"/>
+      <c r="L7" s="135"/>
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>
@@ -12828,8 +14020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13197,8 +14389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14109,10 +15301,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14225,25 +15417,25 @@
         <v>16</v>
       </c>
       <c r="B6" s="15">
-        <v>0.95579999999999998</v>
+        <v>0.78480000000000005</v>
       </c>
       <c r="C6" s="15">
-        <v>0.97219999999999995</v>
+        <v>0.9587</v>
       </c>
       <c r="D6" s="15">
-        <v>0.9395</v>
+        <v>0.61080000000000001</v>
       </c>
       <c r="E6" s="15">
-        <v>0.94140000000000001</v>
+        <v>0.71289999999999998</v>
       </c>
       <c r="F6" s="15">
-        <v>0.95650000000000002</v>
+        <v>0.81730000000000003</v>
       </c>
       <c r="G6" s="15">
-        <v>0.94889999999999997</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="H6" s="15">
-        <v>0.88739999999999997</v>
+        <v>0.80669999999999997</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>40</v>
@@ -14951,18 +16143,149 @@
         <v>0.82289999999999996</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="136">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.77829999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0.78480000000000005</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.9587</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0.80669999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="94">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0.9798</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0.98119999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="95">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="D37" s="35">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.9415</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.98909999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:G30"/>
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15299,7 +16622,7 @@
       <c r="D11" s="14">
         <v>2.18E-2</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="128">
         <v>0.6946</v>
       </c>
       <c r="F11" s="14">
@@ -15770,7 +17093,7 @@
       <c r="D30" s="14">
         <v>2.18E-2</v>
       </c>
-      <c r="E30" s="135">
+      <c r="E30" s="128">
         <v>0.6946</v>
       </c>
       <c r="F30" s="14">
@@ -16403,6 +17726,536 @@
       </c>
       <c r="H58" s="110">
         <v>0.74390000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>0</v>
+      </c>
+      <c r="B61" s="117">
+        <v>0.57689999999999997</v>
+      </c>
+      <c r="C61" s="117">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D61" s="117">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="E61" s="117">
+        <v>0.8196</v>
+      </c>
+      <c r="F61" s="117">
+        <v>0.6986</v>
+      </c>
+      <c r="G61" s="117">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="B62" s="16">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="C62" s="16">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="D62" s="16">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="E62" s="16">
+        <v>0.6734</v>
+      </c>
+      <c r="F62" s="16">
+        <v>0.46089999999999998</v>
+      </c>
+      <c r="G62" s="16">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="H62" s="16">
+        <v>0.4607</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="B63" s="16">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="C63" s="16">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D63" s="16">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F63" s="16">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="G63" s="16">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="H63" s="16">
+        <v>0.63590000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="B64" s="88">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="C64" s="16">
+        <v>0.58630000000000004</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E64" s="16">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="F64" s="16">
+        <v>0.68669999999999998</v>
+      </c>
+      <c r="G64" s="16">
+        <v>0.57589999999999997</v>
+      </c>
+      <c r="H64" s="16">
+        <v>0.68169999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="B65" s="88">
+        <v>0.48530000000000001</v>
+      </c>
+      <c r="C65" s="16">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="D65" s="16">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E65" s="16">
+        <v>0.74270000000000003</v>
+      </c>
+      <c r="F65" s="16">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="G65" s="16">
+        <v>0.4839</v>
+      </c>
+      <c r="H65" s="16">
+        <v>0.5605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="88">
+        <v>0.6714</v>
+      </c>
+      <c r="C69" s="16">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="D69" s="16">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="E69" s="16">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="F69" s="16">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G69" s="16">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H69" s="16">
+        <v>0.60580000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="16">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="C70" s="16">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="D70" s="16">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="E70" s="16">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="F70" s="16">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="G70" s="16">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="H70" s="16">
+        <v>0.73680000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="16">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="C71" s="16">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="D71" s="16">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="E71" s="16">
+        <v>0.6784</v>
+      </c>
+      <c r="F71" s="16">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G71" s="16">
+        <v>2.41E-2</v>
+      </c>
+      <c r="H71" s="16">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="16">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C72" s="16">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D72" s="16">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E72" s="16">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="F72" s="16">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G72" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="H72" s="16">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="138">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C73" s="138">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D73" s="138">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E73" s="138">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="F73" s="138">
+        <v>1E-4</v>
+      </c>
+      <c r="G73" s="138">
+        <v>1E-4</v>
+      </c>
+      <c r="H73" s="138">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="16">
+        <v>1.77E-2</v>
+      </c>
+      <c r="C74" s="16">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="D74" s="16">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="E74" s="16">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="F74" s="139">
+        <v>-2.6499999999999999E-2</v>
+      </c>
+      <c r="G74" s="16">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="H74" s="16">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="16">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="C75" s="16">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="D75" s="16">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E75" s="16">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="F75" s="139">
+        <v>-3.4799999999999998E-2</v>
+      </c>
+      <c r="G75" s="16">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="H75" s="16">
+        <v>0.1482</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="16">
+        <v>0.6714</v>
+      </c>
+      <c r="C78" s="16">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="D78" s="16">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="E78" s="16">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="F78" s="16">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G78" s="16">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H78" s="16">
+        <v>0.60580000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="16">
+        <v>0.3569</v>
+      </c>
+      <c r="C79" s="16">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="D79" s="16">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="E79" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="F79" s="16">
+        <v>0.432</v>
+      </c>
+      <c r="G79" s="16">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="H79" s="16">
+        <v>0.4854</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="16">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="C80" s="16">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="D80" s="16">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="E80" s="16">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F80" s="16">
+        <v>0.7238</v>
+      </c>
+      <c r="G80" s="16">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="H80" s="16">
+        <v>0.65380000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="16">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="C81" s="16">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="D81" s="16">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="E81" s="16">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="F81" s="16">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="G81" s="16">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="H81" s="16">
+        <v>0.67049999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="16">
+        <v>0.5302</v>
+      </c>
+      <c r="C82" s="16">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="D82" s="16">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="E82" s="16">
+        <v>0.8115</v>
+      </c>
+      <c r="F82" s="16">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="H82" s="16">
+        <v>0.63790000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -17111,18 +18964,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128" t="s">
+      <c r="E2" s="129"/>
+      <c r="F2" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="128"/>
+      <c r="G2" s="129"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -17244,18 +19097,18 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128" t="s">
+      <c r="C10" s="129"/>
+      <c r="D10" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128" t="s">
+      <c r="E10" s="129"/>
+      <c r="F10" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="128"/>
+      <c r="G10" s="129"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>

--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -20,9 +20,10 @@
     <sheet name="clustering_evaluation_2" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="GraRep_VGAE" sheetId="12" r:id="rId7"/>
     <sheet name="nSNE" sheetId="9" r:id="rId8"/>
-    <sheet name="tune_hyperparameters" sheetId="4" state="hidden" r:id="rId9"/>
-    <sheet name="unbalanced_Archive" sheetId="1" state="hidden" r:id="rId10"/>
-    <sheet name="expt_verified_Archive" sheetId="10" state="hidden" r:id="rId11"/>
+    <sheet name="VS Skip-GNN" sheetId="13" r:id="rId9"/>
+    <sheet name="tune_hyperparameters" sheetId="4" state="hidden" r:id="rId10"/>
+    <sheet name="unbalanced_Archive" sheetId="1" state="hidden" r:id="rId11"/>
+    <sheet name="expt_verified_Archive" sheetId="10" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="163">
   <si>
     <t>Dataset</t>
   </si>
@@ -521,9 +522,6 @@
 2 clusters: Pos/Neg </t>
   </si>
   <si>
-    <t>VGAE (sum)</t>
-  </si>
-  <si>
     <t>a0_b10</t>
   </si>
   <si>
@@ -538,6 +536,27 @@
   <si>
     <t>a0.4_b10</t>
   </si>
+  <si>
+    <t>FNN</t>
+  </si>
+  <si>
+    <t>SkipGNN</t>
+  </si>
+  <si>
+    <t>node2vec +</t>
+  </si>
+  <si>
+    <t>Except deepwalk and node2vec</t>
+  </si>
+  <si>
+    <t>Lower false negative rate</t>
+  </si>
+  <si>
+    <t>Lower false positive rate</t>
+  </si>
+  <si>
+    <t>More confident of predicted positives</t>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +612,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -685,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -778,11 +803,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1048,6 +1082,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,14 +1110,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4964,7 +5001,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10653,7 +10689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
@@ -12126,6 +12162,729 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="K1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="V1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.55069999999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="44">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.7399</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.52959999999999996</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.7278</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="44">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.84</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.6946</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12177,11 +12936,11 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="130" t="s">
+      <c r="L2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="131"/>
-      <c r="N2" s="134" t="s">
+      <c r="M2" s="134"/>
+      <c r="N2" s="137" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -12217,9 +12976,9 @@
       <c r="I3" s="5">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L3" s="132"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="138"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
@@ -12255,7 +13014,7 @@
       <c r="I4" s="5">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="137" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -12299,7 +13058,7 @@
       <c r="I5" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="L5" s="135"/>
+      <c r="L5" s="138"/>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
@@ -12341,7 +13100,7 @@
       <c r="I6" s="2">
         <v>0.50039999999999996</v>
       </c>
-      <c r="L6" s="134" t="s">
+      <c r="L6" s="137" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -12385,7 +13144,7 @@
       <c r="I7" s="2">
         <v>0.48759999999999998</v>
       </c>
-      <c r="L7" s="135"/>
+      <c r="L7" s="138"/>
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>
@@ -12546,7 +13305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R59"/>
   <sheetViews>
@@ -14021,7 +14780,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16173,7 +16932,7 @@
       <c r="A34" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="136">
+      <c r="B34" s="129">
         <v>0.59060000000000001</v>
       </c>
       <c r="C34" s="18">
@@ -16282,10 +17041,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17898,7 +18657,7 @@
       <c r="A68" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="137" t="s">
+      <c r="B68" s="130" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -17910,7 +18669,7 @@
       <c r="E68" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="137" t="s">
+      <c r="F68" s="130" t="s">
         <v>99</v>
       </c>
       <c r="G68" s="13" t="s">
@@ -18028,233 +18787,181 @@
       <c r="A73" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="138">
+      <c r="B73" s="131">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C73" s="138">
+      <c r="C73" s="131">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D73" s="138">
+      <c r="D73" s="131">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E73" s="138">
+      <c r="E73" s="131">
         <v>0.50880000000000003</v>
       </c>
-      <c r="F73" s="138">
+      <c r="F73" s="131">
         <v>1E-4</v>
       </c>
-      <c r="G73" s="138">
+      <c r="G73" s="131">
         <v>1E-4</v>
       </c>
-      <c r="H73" s="138">
+      <c r="H73" s="131">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="16">
-        <v>1.77E-2</v>
-      </c>
-      <c r="C74" s="16">
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="D74" s="16">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="E74" s="16">
-        <v>0.56850000000000001</v>
-      </c>
-      <c r="F74" s="139">
-        <v>-2.6499999999999999E-2</v>
-      </c>
-      <c r="G74" s="16">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="H74" s="16">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="16">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="C75" s="16">
-        <v>8.6499999999999994E-2</v>
-      </c>
-      <c r="D75" s="16">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E75" s="16">
-        <v>0.53310000000000002</v>
-      </c>
-      <c r="F75" s="139">
-        <v>-3.4799999999999998E-2</v>
-      </c>
-      <c r="G75" s="16">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="H75" s="16">
-        <v>0.1482</v>
+      <c r="B76" s="16">
+        <v>0.6714</v>
+      </c>
+      <c r="C76" s="16">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="D76" s="16">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="E76" s="16">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G76" s="16">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H76" s="16">
+        <v>0.60580000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F77" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>71</v>
+      <c r="A77" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="16">
+        <v>0.3569</v>
+      </c>
+      <c r="C77" s="16">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="D77" s="16">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="E77" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="F77" s="16">
+        <v>0.432</v>
+      </c>
+      <c r="G77" s="16">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="H77" s="16">
+        <v>0.4854</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B78" s="16">
-        <v>0.6714</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="C78" s="16">
-        <v>0.67879999999999996</v>
+        <v>0.66649999999999998</v>
       </c>
       <c r="D78" s="16">
-        <v>0.67510000000000003</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="E78" s="16">
-        <v>0.86950000000000005</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="F78" s="16">
-        <v>0.73699999999999999</v>
+        <v>0.7238</v>
       </c>
       <c r="G78" s="16">
-        <v>0.67500000000000004</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="H78" s="16">
-        <v>0.60580000000000001</v>
+        <v>0.65380000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B79" s="16">
-        <v>0.3569</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="C79" s="16">
-        <v>0.36449999999999999</v>
+        <v>0.64970000000000006</v>
       </c>
       <c r="D79" s="16">
-        <v>0.36070000000000002</v>
+        <v>0.64439999999999997</v>
       </c>
       <c r="E79" s="16">
-        <v>0.72</v>
+        <v>0.85029999999999994</v>
       </c>
       <c r="F79" s="16">
-        <v>0.432</v>
+        <v>0.69730000000000003</v>
       </c>
       <c r="G79" s="16">
-        <v>0.36059999999999998</v>
+        <v>0.64439999999999997</v>
       </c>
       <c r="H79" s="16">
-        <v>0.4854</v>
+        <v>0.67049999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B80" s="16">
-        <v>0.65849999999999997</v>
+        <v>0.5302</v>
       </c>
       <c r="C80" s="16">
-        <v>0.66649999999999998</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="D80" s="16">
-        <v>0.66249999999999998</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="E80" s="16">
-        <v>0.86299999999999999</v>
+        <v>0.8115</v>
       </c>
       <c r="F80" s="16">
-        <v>0.7238</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="G80" s="16">
-        <v>0.66239999999999999</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="H80" s="16">
-        <v>0.65380000000000005</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" s="16">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="C81" s="16">
-        <v>0.64970000000000006</v>
-      </c>
-      <c r="D81" s="16">
-        <v>0.64439999999999997</v>
-      </c>
-      <c r="E81" s="16">
-        <v>0.85029999999999994</v>
-      </c>
-      <c r="F81" s="16">
-        <v>0.69730000000000003</v>
-      </c>
-      <c r="G81" s="16">
-        <v>0.64439999999999997</v>
-      </c>
-      <c r="H81" s="16">
-        <v>0.67049999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="16">
-        <v>0.5302</v>
-      </c>
-      <c r="C82" s="16">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="D82" s="16">
-        <v>0.53280000000000005</v>
-      </c>
-      <c r="E82" s="16">
-        <v>0.8115</v>
-      </c>
-      <c r="F82" s="16">
-        <v>0.62039999999999995</v>
-      </c>
-      <c r="G82" s="16">
-        <v>0.53280000000000005</v>
-      </c>
-      <c r="H82" s="16">
         <v>0.63790000000000002</v>
       </c>
     </row>
@@ -18964,18 +19671,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129" t="s">
+      <c r="C2" s="132"/>
+      <c r="D2" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129" t="s">
+      <c r="E2" s="132"/>
+      <c r="F2" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="129"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -19097,18 +19804,18 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129" t="s">
+      <c r="C10" s="132"/>
+      <c r="D10" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129" t="s">
+      <c r="E10" s="132"/>
+      <c r="F10" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="129"/>
+      <c r="G10" s="132"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -19695,719 +20402,790 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="K1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="V1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA2" s="47" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC2" s="47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="G2" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="141" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.9556</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.95279999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C6" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D6" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E6" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G6" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H6" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="22" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.88149999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="140">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="C8" s="140">
+        <v>0.9194</v>
+      </c>
+      <c r="D8" s="140">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="E8" s="140">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="F8" s="140">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="G8" s="140">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="H8" s="140">
+        <v>0.98380000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="C10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="D10" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="E10" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="F10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="G10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="H10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.87180000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="37">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.9274</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0.98740000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="37">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.94410000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="37">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C24" s="37">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G24" s="37">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0.98260000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.51880000000000004</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.55069999999999997</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.52139999999999997</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.50549999999999995</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B26" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="35">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C27" s="35">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="G27" s="35">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0.99009999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.97719999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="44">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.7399</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.96130000000000004</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.52959999999999996</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.7278</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.33139999999999997</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.52159999999999995</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0.60740000000000005</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0.57630000000000003</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.58389999999999997</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B30" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="37">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="C31" s="37">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="G31" s="37">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0.98970000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="139">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="C32" s="139">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="D32" s="140">
+        <v>0.9627</v>
+      </c>
+      <c r="E32" s="140">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F32" s="139">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="G32" s="139">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H32" s="139">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="18">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0.67820000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="37">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="C36" s="37">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E36" s="37">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="F36" s="37">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="G36" s="37">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="H36" s="37">
+        <v>0.98480000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="44">
-        <v>0.71660000000000001</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.84</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0.66010000000000002</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.61680000000000001</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.76690000000000003</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="V7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="V8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="B38" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C38" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D38" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E38" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F38" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G38" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H38" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="16">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0.71819999999999995</v>
-      </c>
-      <c r="H18" s="16">
-        <v>0.74929999999999997</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0.88090000000000002</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="G19" s="15">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="15">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.996</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.996</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="G39" s="15">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H39" s="15">
         <v>0.99990000000000001</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="15">
-        <v>0.80359999999999998</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.63590000000000002</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0.95960000000000001</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.76390000000000002</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0.94910000000000005</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="16">
-        <v>0.84279999999999999</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0.6946</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0.81379999999999997</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0.97570000000000001</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="compute_edges" sheetId="7" r:id="rId1"/>
     <sheet name="nw_reconstruction" sheetId="2" r:id="rId2"/>
     <sheet name="unbalanced" sheetId="6" r:id="rId3"/>
     <sheet name="expt_verified" sheetId="11" r:id="rId4"/>
-    <sheet name="clustering_evaluation" sheetId="8" r:id="rId5"/>
-    <sheet name="clustering_evaluation_2" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="GraRep_VGAE" sheetId="12" r:id="rId7"/>
-    <sheet name="nSNE" sheetId="9" r:id="rId8"/>
-    <sheet name="VS Skip-GNN" sheetId="13" r:id="rId9"/>
-    <sheet name="tune_hyperparameters" sheetId="4" state="hidden" r:id="rId10"/>
-    <sheet name="unbalanced_Archive" sheetId="1" state="hidden" r:id="rId11"/>
-    <sheet name="expt_verified_Archive" sheetId="10" state="hidden" r:id="rId12"/>
+    <sheet name="Protein Seq Embedding" sheetId="14" r:id="rId5"/>
+    <sheet name="clustering_evaluation" sheetId="8" r:id="rId6"/>
+    <sheet name="clustering_evaluation_2" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="GraRep_VGAE" sheetId="12" r:id="rId8"/>
+    <sheet name="nSNE" sheetId="9" r:id="rId9"/>
+    <sheet name="VS Skip-GNN" sheetId="13" r:id="rId10"/>
+    <sheet name="tune_hyperparameters" sheetId="4" state="hidden" r:id="rId11"/>
+    <sheet name="unbalanced_Archive" sheetId="1" state="hidden" r:id="rId12"/>
+    <sheet name="expt_verified_Archive" sheetId="10" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="164">
   <si>
     <t>Dataset</t>
   </si>
@@ -557,6 +558,9 @@
   <si>
     <t>More confident of predicted positives</t>
   </si>
+  <si>
+    <t>Mapping Func.</t>
+  </si>
 </sst>
 </file>
 
@@ -816,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1089,6 +1093,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,10 +1118,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,13 +1129,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFE5E5FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF6699FF"/>
       <color rgb="FFEBF7FF"/>
       <color rgb="FFEFEFFF"/>
       <color rgb="FFFFCCCC"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFCCCCFF"/>
     </mruColors>
   </colors>
@@ -2543,7 +2550,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3610,7 +3616,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4426,7 +4431,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5001,6 +5005,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5081,6 +5086,849 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$K$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Protein Seq Embedding'!$K$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.71050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52869999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78990000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B005-49AA-BDC1-9CCA7E98D2B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$K$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Protein Seq Embedding'!$K$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.71030000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75739999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B005-49AA-BDC1-9CCA7E98D2B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C/T/D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$K$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Protein Seq Embedding'!$K$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.68720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88970000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79390000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77880000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B005-49AA-BDC1-9CCA7E98D2B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QSOrder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$K$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Protein Seq Embedding'!$K$6:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79810000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75509999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B005-49AA-BDC1-9CCA7E98D2B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>APAAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$K$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Protein Seq Embedding'!$K$7:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.70579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78549999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B005-49AA-BDC1-9CCA7E98D2B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$K$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Protein Seq Embedding'!$K$8:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.68920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84119999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B005-49AA-BDC1-9CCA7E98D2B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NMBroto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Protein Seq Embedding'!$K$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Protein Seq Embedding'!$K$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.78569999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88149999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B005-49AA-BDC1-9CCA7E98D2B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1864373519"/>
+        <c:axId val="1864362703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1864373519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1864362703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1864362703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1864373519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -5107,7 +5955,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5659,7 +6506,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5726,7 +6572,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5766,7 +6612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6319,7 +7164,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6666,6 +7510,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -10187,20 +11071,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10224,14 +11611,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10328,15 +11715,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1419224</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10360,6 +11747,41 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10689,8 +12111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11356,8 +12778,9 @@
       <c r="A13" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J13" t="s">
-        <v>113</v>
+      <c r="K13">
+        <f>N10-M10</f>
+        <v>0.11910000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -11385,8 +12808,9 @@
       <c r="H14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="50" t="s">
-        <v>114</v>
+      <c r="K14">
+        <f>K11-M11</f>
+        <v>8.6099999999999954E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -11440,8 +12864,11 @@
       <c r="H16" s="2">
         <v>0.98939999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -11466,8 +12893,11 @@
       <c r="H17" s="2">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -11493,7 +12923,7 @@
         <v>0.92490000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -11519,7 +12949,7 @@
         <v>0.95909999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -11545,7 +12975,7 @@
         <v>0.81179999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -11571,7 +13001,7 @@
         <v>0.81520000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -11597,7 +13027,7 @@
         <v>0.95269999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -11623,12 +13053,12 @@
         <v>0.67030000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>10</v>
       </c>
@@ -11654,7 +13084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -11680,7 +13110,7 @@
         <v>0.99009999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -11706,7 +13136,7 @@
         <v>0.98970000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -11732,7 +13162,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -11758,7 +13188,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
@@ -11784,7 +13214,7 @@
         <v>0.94410000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -12161,6 +13591,800 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="134" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.9556</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.95279999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.88149999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="133">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="C8" s="133">
+        <v>0.9194</v>
+      </c>
+      <c r="D8" s="133">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="E8" s="133">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="F8" s="133">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="G8" s="133">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="H8" s="133">
+        <v>0.98380000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.87180000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="37">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.9274</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0.98740000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="37">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.94410000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="37">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C24" s="37">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G24" s="37">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0.98260000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="35">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C27" s="35">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="G27" s="35">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0.99009999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.97719999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="37">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="C31" s="37">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="G31" s="37">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0.98970000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="132">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="C32" s="132">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="D32" s="133">
+        <v>0.9627</v>
+      </c>
+      <c r="E32" s="133">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F32" s="132">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="G32" s="132">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H32" s="132">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="18">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0.67820000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="37">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="C36" s="37">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E36" s="37">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="F36" s="37">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="G36" s="37">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="H36" s="37">
+        <v>0.98480000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="15">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.996</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.996</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC21"/>
   <sheetViews>
@@ -12883,7 +15107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -12936,11 +15160,11 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="133" t="s">
+      <c r="L2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="134"/>
-      <c r="N2" s="137" t="s">
+      <c r="M2" s="138"/>
+      <c r="N2" s="141" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -12976,9 +15200,9 @@
       <c r="I3" s="5">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L3" s="135"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="138"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="142"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
@@ -13014,7 +15238,7 @@
       <c r="I4" s="5">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L4" s="137" t="s">
+      <c r="L4" s="141" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -13058,7 +15282,7 @@
       <c r="I5" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="L5" s="138"/>
+      <c r="L5" s="142"/>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
@@ -13100,7 +15324,7 @@
       <c r="I6" s="2">
         <v>0.50039999999999996</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="L6" s="141" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -13144,7 +15368,7 @@
       <c r="I7" s="2">
         <v>0.48759999999999998</v>
       </c>
-      <c r="L7" s="138"/>
+      <c r="L7" s="142"/>
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>
@@ -13305,7 +15529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R59"/>
   <sheetViews>
@@ -16060,10 +18284,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16081,9 +18305,10 @@
     <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>68</v>
       </c>
@@ -16093,7 +18318,7 @@
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>126</v>
       </c>
@@ -16104,7 +18329,7 @@
       <c r="H2" s="48"/>
       <c r="J2" s="84"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
         <v>125</v>
       </c>
@@ -16117,11 +18342,8 @@
       <c r="F4" s="90"/>
       <c r="G4" s="90"/>
       <c r="H4" s="90"/>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="105" t="s">
         <v>10</v>
       </c>
@@ -16146,32 +18368,8 @@
       <c r="H5" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -16196,32 +18394,8 @@
       <c r="H6" s="15">
         <v>0.80669999999999997</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.67420000000000002</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.4556</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.73270000000000002</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.72109999999999996</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.64039999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -16246,32 +18420,8 @@
       <c r="H7" s="18">
         <v>0.98119999999999996</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.65990000000000004</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.90180000000000005</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.41789999999999999</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.72670000000000001</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.74770000000000003</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.67200000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -16296,32 +18446,8 @@
       <c r="H8" s="2">
         <v>0.98909999999999998</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.50609999999999999</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.50760000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="89"/>
       <c r="C9" s="31"/>
@@ -16330,32 +18456,8 @@
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
-      <c r="K9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.67330000000000001</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.87529999999999997</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.4713</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.62490000000000001</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.72809999999999997</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.70740000000000003</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.61890000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -16380,32 +18482,8 @@
       <c r="H10" s="2">
         <v>0.44429999999999997</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.67779999999999996</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.88739999999999997</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.46820000000000001</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.62529999999999997</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.73360000000000003</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0.71840000000000004</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.63380000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -16430,32 +18508,8 @@
       <c r="H11" s="5">
         <v>0.49080000000000001</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.62509999999999999</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.89059999999999995</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.35959999999999998</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.58220000000000005</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0.70379999999999998</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.73629999999999995</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0.67930000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -16480,32 +18534,8 @@
       <c r="H12" s="5">
         <v>0.77829999999999999</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.77439999999999998</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.85289999999999999</v>
-      </c>
-      <c r="N12" s="35">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.74039999999999995</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.79049999999999998</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.82330000000000003</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.75929999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -16531,7 +18561,7 @@
         <v>0.5998</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -16557,7 +18587,7 @@
         <v>0.7016</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>138</v>
       </c>
@@ -16583,7 +18613,7 @@
         <v>0.99770000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>119</v>
       </c>
@@ -17041,9 +19071,1202 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R42"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="84">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.52869999999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="H3">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="35">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.52869999999999995</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>0.69889999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.49419999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.75009999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="35">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="35">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.7399</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.4229</v>
+      </c>
+      <c r="E6">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="35">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.6431</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="35">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.753</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="35">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="L8" s="35">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.9</v>
+      </c>
+      <c r="D9">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.7399</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="84">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.9556</v>
+      </c>
+      <c r="D11">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.6915</v>
+      </c>
+      <c r="G11">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.7026</v>
+      </c>
+      <c r="J11" s="143" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <f>MAX(K3:K9)</f>
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:Q11" si="0">MAX(L3:L9)</f>
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.7399</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0.88149999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>0.61909999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F12">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="G12">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="H12">
+        <v>0.87509999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>0.65959999999999996</v>
+      </c>
+      <c r="C15">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="D15">
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="F15">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="H15">
+        <v>0.82279999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="84">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="C16">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="D16">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="F16">
+        <v>0.7399</v>
+      </c>
+      <c r="G16">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="H16">
+        <v>0.77880000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17">
+        <v>0.4</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="H17">
+        <v>0.51770000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C18">
+        <v>0.93</v>
+      </c>
+      <c r="D18">
+        <v>0.44390000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="F18">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="H18">
+        <v>0.8417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="C21">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="D21">
+        <v>0.4758</v>
+      </c>
+      <c r="E21">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="F21">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="G21">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="H21">
+        <v>0.75670000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="84">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="C22">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="D22">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.6431</v>
+      </c>
+      <c r="F22">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="H22">
+        <v>0.75509999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23">
+        <v>0.67169999999999996</v>
+      </c>
+      <c r="C23">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.61909999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="H23">
+        <v>0.61929999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.42020000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="F24">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="G24">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.77510000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="84">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="E27">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F27">
+        <v>0.753</v>
+      </c>
+      <c r="G27">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.78549999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>0.70089999999999997</v>
+      </c>
+      <c r="C28">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="D28">
+        <v>0.5081</v>
+      </c>
+      <c r="E28">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="H28">
+        <v>0.75890000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29">
+        <v>0.67130000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="D29">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="E29">
+        <v>0.6159</v>
+      </c>
+      <c r="F29">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H29">
+        <v>0.63590000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="C30">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="D30">
+        <v>0.4471</v>
+      </c>
+      <c r="E30">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="G30">
+        <v>0.8246</v>
+      </c>
+      <c r="H30">
+        <v>0.78620000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="84">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="C33">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="D33">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="F33">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.84119999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34">
+        <v>0.67290000000000005</v>
+      </c>
+      <c r="C34">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D34">
+        <v>0.4027</v>
+      </c>
+      <c r="E34">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="F34">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="G34">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="H34">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35">
+        <v>0.62109999999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.8982</v>
+      </c>
+      <c r="D35">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="E35">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F35">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="H35">
+        <v>0.66210000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="C36">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="D36">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="E36">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="F36">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G36">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="H36">
+        <v>0.8831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="84">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="D39">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="E39">
+        <v>0.7399</v>
+      </c>
+      <c r="F39">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="H39">
+        <v>0.88149999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="C40">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="D40">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="E40">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F40">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.8871</v>
+      </c>
+      <c r="H40">
+        <v>0.89419999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41">
+        <v>0.77259999999999995</v>
+      </c>
+      <c r="C41">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="F41">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="H41">
+        <v>0.74329999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.8982</v>
+      </c>
+      <c r="D42">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="E42">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="F42">
+        <v>0.7591</v>
+      </c>
+      <c r="G42">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.85129999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
@@ -18971,7 +22194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
@@ -19648,7 +22871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -19671,18 +22894,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="136"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -19804,18 +23027,18 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132" t="s">
+      <c r="C10" s="136"/>
+      <c r="D10" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132" t="s">
+      <c r="E10" s="136"/>
+      <c r="F10" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="132"/>
+      <c r="G10" s="136"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -19944,7 +23167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -20398,798 +23621,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="142" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="141" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="18">
-        <v>0.88970000000000005</v>
-      </c>
-      <c r="C3" s="37">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0.86319999999999997</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0.89259999999999995</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.9556</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0.95279999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="35">
-        <v>0.91539999999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.85370000000000001</v>
-      </c>
-      <c r="D4" s="35">
-        <v>0.97750000000000004</v>
-      </c>
-      <c r="E4" s="35">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="F4" s="35">
-        <v>0.90990000000000004</v>
-      </c>
-      <c r="G4" s="35">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="H4" s="35">
-        <v>0.98899999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.85019999999999996</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.83360000000000001</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.84319999999999995</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.90049999999999997</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.88149999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="140">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="C8" s="140">
-        <v>0.9194</v>
-      </c>
-      <c r="D8" s="140">
-        <v>0.95889999999999997</v>
-      </c>
-      <c r="E8" s="140">
-        <v>0.95750000000000002</v>
-      </c>
-      <c r="F8" s="140">
-        <v>0.93769999999999998</v>
-      </c>
-      <c r="G8" s="140">
-        <v>0.98440000000000005</v>
-      </c>
-      <c r="H8" s="140">
-        <v>0.98380000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="15">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.82869999999999999</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0.83940000000000003</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0.86680000000000001</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0.87180000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="37">
-        <v>0.94430000000000003</v>
-      </c>
-      <c r="C12" s="37">
-        <v>0.91559999999999997</v>
-      </c>
-      <c r="D12" s="37">
-        <v>0.97250000000000003</v>
-      </c>
-      <c r="E12" s="37">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="F12" s="37">
-        <v>0.94210000000000005</v>
-      </c>
-      <c r="G12" s="37">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="H12" s="37">
-        <v>0.98960000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="37">
-        <v>0.94930000000000003</v>
-      </c>
-      <c r="C15" s="37">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.9274</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.93049999999999999</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0.95040000000000002</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.98599999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="15">
-        <v>0.94610000000000005</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0.92479999999999996</v>
-      </c>
-      <c r="D16" s="37">
-        <v>0.96709999999999996</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0.96489999999999998</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="G16" s="37">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="H16" s="37">
-        <v>0.98740000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="C19" s="37">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0.96799999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="37">
-        <v>0.94869999999999999</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.92759999999999998</v>
-      </c>
-      <c r="D20" s="37">
-        <v>0.96919999999999995</v>
-      </c>
-      <c r="E20" s="37">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0.94710000000000005</v>
-      </c>
-      <c r="G20" s="37">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="H20" s="37">
-        <v>0.98760000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="16">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0.88160000000000005</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0.88470000000000004</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0.89549999999999996</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0.95020000000000004</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0.94410000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="37">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="C24" s="37">
-        <v>0.91059999999999997</v>
-      </c>
-      <c r="D24" s="37">
-        <v>0.96550000000000002</v>
-      </c>
-      <c r="E24" s="37">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="F24" s="37">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G24" s="37">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="H24" s="37">
-        <v>0.98260000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="35">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="C27" s="35">
-        <v>0.97889999999999999</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.95520000000000005</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.95620000000000005</v>
-      </c>
-      <c r="F27" s="35">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="G27" s="35">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="H27" s="35">
-        <v>0.99009999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="16">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="C28" s="16">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D28" s="35">
-        <v>0.96970000000000001</v>
-      </c>
-      <c r="E28" s="35">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0.93410000000000004</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0.97719999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="37">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="C31" s="37">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F31" s="37">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="G31" s="37">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="H31" s="37">
-        <v>0.98970000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="139">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="C32" s="139">
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="D32" s="140">
-        <v>0.9627</v>
-      </c>
-      <c r="E32" s="140">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="F32" s="139">
-        <v>0.94240000000000002</v>
-      </c>
-      <c r="G32" s="139">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H32" s="139">
-        <v>0.98839999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="18">
-        <v>0.68679999999999997</v>
-      </c>
-      <c r="C35" s="18">
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="D35" s="18">
-        <v>0.65069999999999995</v>
-      </c>
-      <c r="E35" s="18">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="F35" s="18">
-        <v>0.69720000000000004</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0.72870000000000001</v>
-      </c>
-      <c r="H35" s="18">
-        <v>0.67820000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="37">
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="C36" s="37">
-        <v>0.92949999999999999</v>
-      </c>
-      <c r="D36" s="37">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="E36" s="37">
-        <v>0.94810000000000005</v>
-      </c>
-      <c r="F36" s="37">
-        <v>0.93840000000000001</v>
-      </c>
-      <c r="G36" s="37">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="H36" s="37">
-        <v>0.98480000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="15">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="C39" s="15">
-        <v>0.99690000000000001</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0.996</v>
-      </c>
-      <c r="E39" s="15">
-        <v>0.996</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/results/Summary_FNN.xlsx
+++ b/results/Summary_FNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6915" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="compute_edges" sheetId="7" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="clustering_evaluation" sheetId="8" r:id="rId6"/>
     <sheet name="clustering_evaluation_2" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="GraRep_VGAE" sheetId="12" r:id="rId8"/>
-    <sheet name="nSNE" sheetId="9" r:id="rId9"/>
-    <sheet name="VS Skip-GNN" sheetId="13" r:id="rId10"/>
-    <sheet name="tune_hyperparameters" sheetId="4" state="hidden" r:id="rId11"/>
-    <sheet name="unbalanced_Archive" sheetId="1" state="hidden" r:id="rId12"/>
-    <sheet name="expt_verified_Archive" sheetId="10" state="hidden" r:id="rId13"/>
+    <sheet name="n2v_n2v+" sheetId="15" r:id="rId9"/>
+    <sheet name="nSNE" sheetId="9" r:id="rId10"/>
+    <sheet name="VS Skip-GNN" sheetId="13" r:id="rId11"/>
+    <sheet name="tune_hyperparameters" sheetId="4" state="hidden" r:id="rId12"/>
+    <sheet name="unbalanced_Archive" sheetId="1" state="hidden" r:id="rId13"/>
+    <sheet name="expt_verified_Archive" sheetId="10" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="165">
   <si>
     <t>Dataset</t>
   </si>
@@ -561,6 +562,9 @@
   <si>
     <t>Mapping Func.</t>
   </si>
+  <si>
+    <t>Difference</t>
+  </si>
 </sst>
 </file>
 
@@ -820,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1097,6 +1101,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,9 +1125,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,6 +2556,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3616,6 +3623,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4431,6 +4439,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5848,7 +5857,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5955,6 +5963,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6506,6 +6515,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6612,6 +6622,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7164,6 +7175,418 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'n2v_n2v+'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'n2v_n2v+'!$B$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Accuracy</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ROC-AUC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F1-Score</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>PR-AUC</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Accuracy</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>ROC-AUC</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Network Reconstruction</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unbalanced</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Experimentally Verified</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'n2v_n2v+'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.86260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53849999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E465-445E-8EC9-E99DD8A06AF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'n2v_n2v+'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'n2v_n2v+'!$B$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Accuracy</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ROC-AUC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F1-Score</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>PR-AUC</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Accuracy</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>ROC-AUC</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Network Reconstruction</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Unbalanced</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Experimentally Verified</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'n2v_n2v+'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66090000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E465-445E-8EC9-E99DD8A06AF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="84927600"/>
+        <c:axId val="2138716912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84927600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2138716912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2138716912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84927600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7550,6 +7973,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11072,6 +11535,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11846,6 +12812,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12111,7 +13112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -13592,6 +14593,462 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="66">
+        <v>0.6028</v>
+      </c>
+      <c r="C3" s="65">
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="D3" s="65">
+        <v>0.59</v>
+      </c>
+      <c r="E3" s="65">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="F3" s="65">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="G3" s="65">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="H3" s="65">
+        <v>0.31269999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.5948</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.8014</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.30549999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="67">
+        <v>0.62109999999999999</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.68469999999999998</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.3034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.629</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.30730000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.57450000000000001</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.36680000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="16">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="C8" s="16">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="F8" s="16">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="73">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="C11" s="74">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="D11" s="74">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="E11" s="74">
+        <v>0.66269999999999996</v>
+      </c>
+      <c r="F11" s="74">
+        <v>0.3085</v>
+      </c>
+      <c r="G11" s="74">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H11" s="74">
+        <v>0.17150000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.996</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.996</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="31">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H16" s="31">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.9929</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.9244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14384,7 +15841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC21"/>
   <sheetViews>
@@ -15107,7 +16564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -15160,11 +16617,11 @@
       <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="137" t="s">
+      <c r="L2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="138"/>
-      <c r="N2" s="141" t="s">
+      <c r="M2" s="139"/>
+      <c r="N2" s="142" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -15200,9 +16657,9 @@
       <c r="I3" s="5">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L3" s="139"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="142"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="143"/>
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
@@ -15238,7 +16695,7 @@
       <c r="I4" s="5">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L4" s="141" t="s">
+      <c r="L4" s="142" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -15282,7 +16739,7 @@
       <c r="I5" s="2">
         <v>0.72219999999999995</v>
       </c>
-      <c r="L5" s="142"/>
+      <c r="L5" s="143"/>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
@@ -15324,7 +16781,7 @@
       <c r="I6" s="2">
         <v>0.50039999999999996</v>
       </c>
-      <c r="L6" s="141" t="s">
+      <c r="L6" s="142" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -15368,7 +16825,7 @@
       <c r="I7" s="2">
         <v>0.48759999999999998</v>
       </c>
-      <c r="L7" s="142"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>
@@ -15529,7 +16986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R59"/>
   <sheetViews>
@@ -17004,7 +18461,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H8"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17373,7 +18830,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18287,7 +19744,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="B11" sqref="B11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19547,7 +21004,7 @@
       <c r="H11">
         <v>0.7026</v>
       </c>
-      <c r="J11" s="143" t="s">
+      <c r="J11" s="136" t="s">
         <v>4</v>
       </c>
       <c r="K11">
@@ -22876,7 +24333,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22894,18 +24351,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136" t="s">
+      <c r="C2" s="137"/>
+      <c r="D2" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136" t="s">
+      <c r="E2" s="137"/>
+      <c r="F2" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="136"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -23027,18 +24484,18 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136" t="s">
+      <c r="C10" s="137"/>
+      <c r="D10" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136" t="s">
+      <c r="E10" s="137"/>
+      <c r="F10" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="136"/>
+      <c r="G10" s="137"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -23169,456 +24626,126 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="66">
-        <v>0.6028</v>
-      </c>
-      <c r="C3" s="65">
-        <v>0.57769999999999999</v>
-      </c>
-      <c r="D3" s="65">
-        <v>0.59</v>
-      </c>
-      <c r="E3" s="65">
-        <v>0.79090000000000005</v>
-      </c>
-      <c r="F3" s="65">
-        <v>0.66439999999999999</v>
-      </c>
-      <c r="G3" s="65">
-        <v>0.58989999999999998</v>
-      </c>
-      <c r="H3" s="65">
-        <v>0.31269999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="16">
-        <v>0.61639999999999995</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.5948</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="137"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.37619999999999998</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.39810000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.53849999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.98719999999999997</v>
       </c>
       <c r="D4" s="16">
-        <v>0.60540000000000005</v>
+        <v>0.61870000000000003</v>
       </c>
       <c r="E4" s="16">
-        <v>0.8014</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.68020000000000003</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.60529999999999995</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0.30549999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="67">
-        <v>0.62109999999999999</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.59760000000000002</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.60909999999999997</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.68469999999999998</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0.3034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="16">
-        <v>0.629</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.60980000000000001</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.61919999999999997</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.80689999999999995</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0.61919999999999997</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0.30730000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0.54190000000000005</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.57530000000000003</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.75160000000000005</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.57450000000000001</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.57520000000000004</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.36680000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="16">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="C8" s="16">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.43859999999999999</v>
-      </c>
-      <c r="F8" s="16">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G8" s="16">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="H8" s="16">
-        <v>9.2399999999999996E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="73">
-        <v>0.59550000000000003</v>
-      </c>
-      <c r="C11" s="74">
-        <v>0.30909999999999999</v>
-      </c>
-      <c r="D11" s="74">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="E11" s="74">
-        <v>0.66269999999999996</v>
-      </c>
-      <c r="F11" s="74">
-        <v>0.3085</v>
-      </c>
-      <c r="G11" s="74">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="H11" s="74">
-        <v>0.17150000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.99570000000000003</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.99570000000000003</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="C15" s="32">
-        <v>0.99690000000000001</v>
-      </c>
-      <c r="D15" s="32">
-        <v>0.996</v>
-      </c>
-      <c r="E15" s="32">
-        <v>0.996</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="31">
-        <v>0.99529999999999996</v>
-      </c>
-      <c r="C16" s="31">
-        <v>0.99690000000000001</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="E16" s="31">
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0.99529999999999996</v>
-      </c>
-      <c r="G16" s="31">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H16" s="31">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.99419999999999997</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.99550000000000005</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.99280000000000002</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.9929</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.99419999999999997</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="18">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0.97170000000000001</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0.97219999999999995</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0.97929999999999995</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.99839999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.86519999999999997</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.86639999999999995</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.86409999999999998</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.86460000000000004</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.86539999999999995</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.93479999999999996</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.9244</v>
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6">
+        <f>D4-D3</f>
+        <v>0.24250000000000005</v>
+      </c>
+      <c r="E6">
+        <f>E4-E3</f>
+        <v>0.26280000000000003</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>